--- a/step3_noise_generation/error_reports_xlsx/transposition_errors.xlsx
+++ b/step3_noise_generation/error_reports_xlsx/transposition_errors.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E164"/>
+  <dimension ref="A1:E180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,22 +456,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>estbalished</t>
+          <t>presidenital</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>established</t>
+          <t>presidential</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Prince Pedro of Braganza declared the country's independence in 1822 and, after waging a war against Portugal, estbalished the Empire of Brazil.</t>
+          <t>He oversaw the transformation of Turkey's parliamentary system into a presidenital system, introducing term limits and expanding executive powers, and Turkey's migrant crisis.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Prince Pedro of Braganza declared the country's independence in 1822 and, after waging a war against Portugal, established the Empire of Brazil.</t>
+          <t>He oversaw the transformation of Turkey's parliamentary system into a presidential system, introducing term limits and expanding executive powers, and Turkey's migrant crisis.</t>
         </is>
       </c>
     </row>
@@ -483,22 +483,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maojr</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Maojr amendments were made in 2010.</t>
+          <t>Many psychologists are involved in some kind of therapeutic role, practicing psychotherapy in clinical, counseling, or school settings.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Major amendments were made in 2010.</t>
+          <t>Many psychologists are involved in some kind of therapeutic role, practicing psychotherapy in clinical, counseling, or school settings.</t>
         </is>
       </c>
     </row>
@@ -520,12 +520,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Rights are legal, social, or ethical principles of freedom or entitlement; that is, rights are the fundamental normative rules about what is allowed of people or owed to people according to some legal system, social convention, or ethical theory.</t>
+          <t>This was the ninth opened McDonald's restaurant overall, although this location was demolished in 1984 in response to the San Ysidro McDonald's massacre.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Rights are legal, social, or ethical principles of freedom or entitlement; that is, rights are the fundamental normative rules about what is allowed of people or owed to people according to some legal system, social convention, or ethical theory.</t>
+          <t>This was the ninth opened McDonald's restaurant overall, although this location was demolished in 1984 in response to the San Ysidro McDonald's massacre.</t>
         </is>
       </c>
     </row>
@@ -537,22 +537,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ABSIC</t>
+          <t>preiods</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BASIC</t>
+          <t>periods</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Founded by Bill Gates and Paul Allen to market ABSIC interpreters for the Altair 8800, Microsoft rose to dominate the personal computer operating system market with MS-DOS in the mid-1980s, followed by Windows.</t>
+          <t>Thereafter, preiods of civil war and Seljuk incursion resulted in the loss of most of Asia Minor.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Founded by Bill Gates and Paul Allen to market BASIC interpreters for the Altair 8800, Microsoft rose to dominate the personal computer operating system market with MS-DOS in the mid-1980s, followed by Windows.</t>
+          <t>Thereafter, periods of civil war and Seljuk incursion resulted in the loss of most of Asia Minor.</t>
         </is>
       </c>
     </row>
@@ -564,22 +564,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>beocme</t>
+          <t>Ofxord</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>become</t>
+          <t>Oxford</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>He originated prisms as beam expanders and multiple-prism arrays, which would later beocme integral to the development of tunable lasers.</t>
+          <t>Ofxord does not have a main campus.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>He originated prisms as beam expanders and multiple-prism arrays, which would later become integral to the development of tunable lasers.</t>
+          <t>Oxford does not have a main campus.</t>
         </is>
       </c>
     </row>
@@ -591,22 +591,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>repreesntation</t>
+          <t>sapre</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>representation</t>
+          <t>spare</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A pan-European party with repreesntation in the European Parliament fighting for the same cause is Volt Europa.</t>
+          <t>Almost every kind of product can be found in the international market, for example: food, clothes, sapre parts, oil, jewellery, wine, stocks, currencies, and water.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A pan-European party with representation in the European Parliament fighting for the same cause is Volt Europa.</t>
+          <t>Almost every kind of product can be found in the international market, for example: food, clothes, spare parts, oil, jewellery, wine, stocks, currencies, and water.</t>
         </is>
       </c>
     </row>
@@ -618,22 +618,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>migarting</t>
+          <t>appiles</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>migrating</t>
+          <t>applies</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>The Seljuk Turks began migarting into Anatolia in the 11th century, starting the Turkification process.</t>
+          <t>The judiciary (also known as the judicial system, judicature, judicial branch, judiciative branch, and court or judiciary system) is the system of courts that adjudicates legal disputes/disagreements and interprets, defends, and appiles the law in legal cases.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>The Seljuk Turks began migrating into Anatolia in the 11th century, starting the Turkification process.</t>
+          <t>The judiciary (also known as the judicial system, judicature, judicial branch, judiciative branch, and court or judiciary system) is the system of courts that adjudicates legal disputes/disagreements and interprets, defends, and applies the law in legal cases.</t>
         </is>
       </c>
     </row>
@@ -645,22 +645,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>leected</t>
+          <t>dritfed</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>elected</t>
+          <t>drifted</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>The president is directly leected to a five-year term, with no possibility of re-election.</t>
+          <t>Later he dritfed into ill-health and solitude.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>The president is directly elected to a five-year term, with no possibility of re-election.</t>
+          <t>Later he drifted into ill-health and solitude.</t>
         </is>
       </c>
     </row>
@@ -672,22 +672,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>actviities</t>
+          <t>intnetions</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>activities</t>
+          <t>intentions</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The Bank's actviities span all sectors of development.</t>
+          <t>The Truman Doctrine in 1947 enunciated American intnetions to guarantee the security of Turkey and Greece during the Cold War, and resulted in large-scale U.S.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>The Bank's activities span all sectors of development.</t>
+          <t>The Truman Doctrine in 1947 enunciated American intentions to guarantee the security of Turkey and Greece during the Cold War, and resulted in large-scale U.S.</t>
         </is>
       </c>
     </row>
@@ -699,22 +699,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>natoinalist</t>
+          <t>reevnue</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>nationalist</t>
+          <t>revenue</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Ideologically an African natoinalist and socialist, he served as the president of the African National Congress (ANC) party from 1991 to 1997.</t>
+          <t>In 2023, YouTube's advertising reevnue totaled $31.7 billion, a 2% increase from the $31.1 billion reported in 2022.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ideologically an African nationalist and socialist, he served as the president of the African National Congress (ANC) party from 1991 to 1997.</t>
+          <t>In 2023, YouTube's advertising revenue totaled $31.7 billion, a 2% increase from the $31.1 billion reported in 2022.</t>
         </is>
       </c>
     </row>
@@ -726,22 +726,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>opposiiton</t>
+          <t>internaitonally</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>opposition</t>
+          <t>internationally</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Part of its effort to consolidate power was to proscribe and exile opposiiton politicians from the Freedom and Accord Party to remote Sinop.</t>
+          <t>It is available internaitonally in multiple languages.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Part of its effort to consolidate power was to proscribe and exile opposition politicians from the Freedom and Accord Party to remote Sinop.</t>
+          <t>It is available internationally in multiple languages.</t>
         </is>
       </c>
     </row>
@@ -753,22 +753,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>hcosen</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>chosen</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Then-president Jacques Chirac was first elected in 1995 and again in 2002, and would have been able to run in 2007 had he hcosen to, given the lack of term limits.</t>
+          <t>Historically, parliaments included various kinds of deliberative, consultative, and judicial assemblies.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Then-president Jacques Chirac was first elected in 1995 and again in 2002, and would have been able to run in 2007 had he chosen to, given the lack of term limits.</t>
+          <t>Historically, parliaments included various kinds of deliberative, consultative, and judicial assemblies.</t>
         </is>
       </c>
     </row>
@@ -780,22 +780,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Moahmed</t>
+          <t>Presidentail</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mohamed</t>
+          <t>Presidential</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>The first was Moahmed Naguib, followed by Gamal Abdel Nasser, and Anwar Sadat.</t>
+          <t>In 2018, Presley was posthumously awarded the Presidentail Medal of Freedom.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>The first was Mohamed Naguib, followed by Gamal Abdel Nasser, and Anwar Sadat.</t>
+          <t>In 2018, Presley was posthumously awarded the Presidential Medal of Freedom.</t>
         </is>
       </c>
     </row>
@@ -807,22 +807,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>Truks</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>Turks</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>The Classical period is characterized by a "classical" style, i.e.</t>
+          <t>The Seljuk Truks began migrating into Anatolia in the 11th century, starting the Turkification process.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>The Classical period is characterized by a "classical" style, i.e.</t>
+          <t>The Seljuk Turks began migrating into Anatolia in the 11th century, starting the Turkification process.</t>
         </is>
       </c>
     </row>
@@ -834,22 +834,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>tehse</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>these</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Minerals are often identified through tehse tests.</t>
+          <t>He began his music career in 1954 at Sun Records with producer Sam Phillips, who wanted to bring the sound of African-American music to a wider audience.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Minerals are often identified through these tests.</t>
+          <t>He began his music career in 1954 at Sun Records with producer Sam Phillips, who wanted to bring the sound of African-American music to a wider audience.</t>
         </is>
       </c>
     </row>
@@ -861,22 +861,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>wihch</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>which</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Antep could be a corruption of the Arabic 'aīn ṭayyib meaning "good spring".</t>
+          <t>It is predated in use by the Ancient Greek word τέχνη (tékhnē), used to mean 'knowledge of how to make things', wihch encompassed activities like architecture.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Antep could be a corruption of the Arabic 'aīn ṭayyib meaning "good spring".</t>
+          <t>It is predated in use by the Ancient Greek word τέχνη (tékhnē), used to mean 'knowledge of how to make things', which encompassed activities like architecture.</t>
         </is>
       </c>
     </row>
@@ -888,22 +888,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ernamed</t>
+          <t>riisng</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>renamed</t>
+          <t>rising</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>The city was officially ernamed Istanbul on 28 March 1930.</t>
+          <t>With riisng nationalism, a number of new states emerged in the Balkans.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>The city was officially renamed Istanbul on 28 March 1930.</t>
+          <t>With rising nationalism, a number of new states emerged in the Balkans.</t>
         </is>
       </c>
     </row>
@@ -915,22 +915,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>natrual</t>
+          <t>ofifce</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>natural</t>
+          <t>office</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>For example, it has been argued that humans have a natrual right to life.</t>
+          <t>The ofifce was later renamed to Minister-President of the Austrian Empire and remained from there on until the dissolution of Austria-Hungary.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>For example, it has been argued that humans have a natural right to life.</t>
+          <t>The office was later renamed to Minister-President of the Austrian Empire and remained from there on until the dissolution of Austria-Hungary.</t>
         </is>
       </c>
     </row>
@@ -942,22 +942,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>studide</t>
+          <t>conudct</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>studied</t>
+          <t>conduct</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Matter can be studide in solid, liquid, gas and plasma states, in isolation or in combination.</t>
+          <t>It proscribes conudct perceived as threatening, harmful, or otherwise endangering to the property, health, safety, and welfare of people inclusive of one's self.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Matter can be studied in solid, liquid, gas and plasma states, in isolation or in combination.</t>
+          <t>It proscribes conduct perceived as threatening, harmful, or otherwise endangering to the property, health, safety, and welfare of people inclusive of one's self.</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>sicentific</t>
+          <t>glboal</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>scientific</t>
+          <t>global</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Anthropology is the sicentific study of humanity that crosses biology and sociology, concerned with human behavior, human biology, cultures, societies, and linguistics, in both the present and past, including archaic humans.</t>
+          <t>Poorer communities are responsible for a small share of glboal emissions, yet have the least ability to adapt and are most vulnerable to climate change.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Anthropology is the scientific study of humanity that crosses biology and sociology, concerned with human behavior, human biology, cultures, societies, and linguistics, in both the present and past, including archaic humans.</t>
+          <t>Poorer communities are responsible for a small share of global emissions, yet have the least ability to adapt and are most vulnerable to climate change.</t>
         </is>
       </c>
     </row>
@@ -996,22 +996,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cerwed</t>
+          <t>acnient</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>crewed</t>
+          <t>ancient</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>In 1969, Apollo 11 was the first cerwed mission to land on the Moon.</t>
+          <t>Classical Greek culture, especially philosophy, had a powerful influence on acnient Rome, which carried a version of it throughout the Mediterranean and much of Europe.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>In 1969, Apollo 11 was the first crewed mission to land on the Moon.</t>
+          <t>Classical Greek culture, especially philosophy, had a powerful influence on ancient Rome, which carried a version of it throughout the Mediterranean and much of Europe.</t>
         </is>
       </c>
     </row>
@@ -1023,22 +1023,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>visula</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>visual</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Art refers to the way of doing or applying human creative skills, typically, but not necessarily, in visula form.</t>
+          <t>Alternatively, this document can simply be referred to as a degree certificate or graduation certificate, or as a parchment.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Art refers to the way of doing or applying human creative skills, typically, but not necessarily, in visual form.</t>
+          <t>Alternatively, this document can simply be referred to as a degree certificate or graduation certificate, or as a parchment.</t>
         </is>
       </c>
     </row>
@@ -1050,22 +1050,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Afircans</t>
+          <t>ytpes</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Africans</t>
+          <t>types</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Enslavement of Afircans was practiced in all colonies by 1770 and supplied most of the labor for the Southern Colonies' plantation economy.</t>
+          <t>The most widely used renewable energy ytpes are solar energy, wind power, and hydropower.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Enslavement of Africans was practiced in all colonies by 1770 and supplied most of the labor for the Southern Colonies' plantation economy.</t>
+          <t>The most widely used renewable energy types are solar energy, wind power, and hydropower.</t>
         </is>
       </c>
     </row>
@@ -1077,22 +1077,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>oYuTubers</t>
+          <t>coheernt</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>YouTubers</t>
+          <t>coherent</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Most content is generated by individuals, including collaborations between oYuTubers and corporate sponsors.</t>
+          <t>Historians strive to integrate the perspectives of several sources to develop a coheernt narrative.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Most content is generated by individuals, including collaborations between YouTubers and corporate sponsors.</t>
+          <t>Historians strive to integrate the perspectives of several sources to develop a coherent narrative.</t>
         </is>
       </c>
     </row>
@@ -1104,22 +1104,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>rpogram</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>program</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>The Constitution of the Fifth Republic, adopted in 1958, greatly increased the president's powers.</t>
+          <t>Runs a program with arguments for each candidate file, selecting files for which the rpogram results in exit status 0.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>The Constitution of the Fifth Republic, adopted in 1958, greatly increased the president's powers.</t>
+          <t>Runs a program with arguments for each candidate file, selecting files for which the program results in exit status 0.</t>
         </is>
       </c>
     </row>
@@ -1131,22 +1131,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ilterature</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>literature</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Within this broader definition, ilterature includes non-fictional books, articles, or other written information on a particular subject.</t>
+          <t>The Italian Renaissance concluded in 1527 when Holy Roman Emperor Charles V launched an assault on Rome during the war of the League of Cognac.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Within this broader definition, literature includes non-fictional books, articles, or other written information on a particular subject.</t>
+          <t>The Italian Renaissance concluded in 1527 when Holy Roman Emperor Charles V launched an assault on Rome during the war of the League of Cognac.</t>
         </is>
       </c>
     </row>
@@ -1158,22 +1158,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>cpaital</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>capital</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Kenya's cpaital and largest city is Nairobi.</t>
+          <t>One of the most revered figures in the history of Western music, his works rank among the most performed of the classical music repertoire and span the transition from the Classical to the Romantic era.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Kenya's capital and largest city is Nairobi.</t>
+          <t>One of the most revered figures in the history of Western music, his works rank among the most performed of the classical music repertoire and span the transition from the Classical to the Romantic era.</t>
         </is>
       </c>
     </row>
@@ -1185,22 +1185,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>acpital</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>capital</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>However, many initially favoured competing explanations that gave only a minor role to natural selection.</t>
+          <t>Kenya's acpital and largest city is Nairobi.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>However, many initially favoured competing explanations that gave only a minor role to natural selection.</t>
+          <t>Kenya's capital and largest city is Nairobi.</t>
         </is>
       </c>
     </row>
@@ -1212,22 +1212,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>urling</t>
+          <t>populatino</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ruling</t>
+          <t>population</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>In most realms, daughters and sisters were eligible to succeed a urling kinsman before more distant male relatives (male-preference primogeniture), but sometimes the husband of the heiress became the ruler, and most often also received the title, jure uxoris.</t>
+          <t>The Late Middle Ages was marked by difficulties and calamities, including famine, plague, and war, which significantly diminished the populatino of Europe; between 1347 and 1350, the Black Death killed about a third of Europeans.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>In most realms, daughters and sisters were eligible to succeed a ruling kinsman before more distant male relatives (male-preference primogeniture), but sometimes the husband of the heiress became the ruler, and most often also received the title, jure uxoris.</t>
+          <t>The Late Middle Ages was marked by difficulties and calamities, including famine, plague, and war, which significantly diminished the population of Europe; between 1347 and 1350, the Black Death killed about a third of Europeans.</t>
         </is>
       </c>
     </row>
@@ -1239,22 +1239,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Peninsual</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Peninsula</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Seeking to extend his trade embargo against Britain, Napoleon invaded the Iberian Peninsual and installed his brother Joseph as King of Spain in 1808, provoking the Peninsular War.</t>
+          <t>It starts searching at a directory in a hierarchical structure and recursively traverses the tree although can be limited to a maximum number of levels.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Seeking to extend his trade embargo against Britain, Napoleon invaded the Iberian Peninsula and installed his brother Joseph as King of Spain in 1808, provoking the Peninsular War.</t>
+          <t>It starts searching at a directory in a hierarchical structure and recursively traverses the tree although can be limited to a maximum number of levels.</t>
         </is>
       </c>
     </row>
@@ -1266,22 +1266,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>hteir</t>
+          <t>activiites</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>their</t>
+          <t>activities</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Recognizing the necessity of closely coordinating hteir efforts against the British, the Continental Congress simultaneously began the process of drafting a constitution that would bind the states together.</t>
+          <t>These activiites include painting, sculpting, music, theatre, literature, and more.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Recognizing the necessity of closely coordinating their efforts against the British, the Continental Congress simultaneously began the process of drafting a constitution that would bind the states together.</t>
+          <t>These activities include painting, sculpting, music, theatre, literature, and more.</t>
         </is>
       </c>
     </row>
@@ -1293,22 +1293,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>jalied</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>jailed</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>King was jalied several times.</t>
+          <t>Its remaining territories were progressively annexed by the Ottomans in a series of wars fought in the 14th and 15th centuries.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>King was jailed several times.</t>
+          <t>Its remaining territories were progressively annexed by the Ottomans in a series of wars fought in the 14th and 15th centuries.</t>
         </is>
       </c>
     </row>
@@ -1320,22 +1320,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ocmmon</t>
+          <t>chattle</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>common</t>
+          <t>chattel</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>However, in some countries the judiciary does make ocmmon law.</t>
+          <t>Constitution, which in 1865 abolished chattle slavery.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>However, in some countries the judiciary does make common law.</t>
+          <t>Constitution, which in 1865 abolished chattel slavery.</t>
         </is>
       </c>
     </row>
@@ -1347,22 +1347,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>pAplied</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>Applied</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>His proposition that all species of life have descended from a common ancestor is now generally accepted and considered a fundamental scientific concept.</t>
+          <t>pAplied sociological research may be applied directly to social policy and welfare, whereas theoretical approaches may focus on the understanding of social processes and phenomenological method.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>His proposition that all species of life have descended from a common ancestor is now generally accepted and considered a fundamental scientific concept.</t>
+          <t>Applied sociological research may be applied directly to social policy and welfare, whereas theoretical approaches may focus on the understanding of social processes and phenomenological method.</t>
         </is>
       </c>
     </row>
@@ -1374,22 +1374,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mlilions</t>
+          <t>aHrry</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Millions</t>
+          <t>Harry</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mlilions died in genocides, including the Holocaust, and by massacres, starvation, and disease.</t>
+          <t>In 1948, President aHrry S.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Millions died in genocides, including the Holocaust, and by massacres, starvation, and disease.</t>
+          <t>In 1948, President Harry S.</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>offcier</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>officer</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>It is put together by the chief executive offcier (CEO) to work on a specific task.</t>
+          <t>The modern word alchemy in turn is derived from the Arabic word al-kīmīā (الكیمیاء).</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>It is put together by the chief executive officer (CEO) to work on a specific task.</t>
+          <t>The modern word alchemy in turn is derived from the Arabic word al-kīmīā (الكیمیاء).</t>
         </is>
       </c>
     </row>
@@ -1438,12 +1438,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>The Spartan election of the Ephors, therefore, also predates the reforms of Solon in Athens by approximately 180 years.</t>
+          <t>CPJ staff applies strict criteria for each case; researchers independently investigate and verify the circumstances behind each death or imprisonment.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>The Spartan election of the Ephors, therefore, also predates the reforms of Solon in Athens by approximately 180 years.</t>
+          <t>CPJ staff applies strict criteria for each case; researchers independently investigate and verify the circumstances behind each death or imprisonment.</t>
         </is>
       </c>
     </row>
@@ -1455,22 +1455,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Accordnig</t>
+          <t>farnchised</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>According</t>
+          <t>franchised</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Accordnig to the Stanford Encyclopedia of Philosophy, "rights structure the form of governments, the content of laws, and the shape of morality as it is currently perceived".</t>
+          <t>They soon farnchised the company.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>According to the Stanford Encyclopedia of Philosophy, "rights structure the form of governments, the content of laws, and the shape of morality as it is currently perceived".</t>
+          <t>They soon franchised the company.</t>
         </is>
       </c>
     </row>
@@ -1482,22 +1482,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>lendnig</t>
+          <t>obsrevable</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>lending</t>
+          <t>observable</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>The Bank's lendnig and operational decisions are made by a president and a board of 25 executive directors.</t>
+          <t>Nevertheless, a scholarly tradition obsrevable in the 16th century claimed a far earlier 7th-century foundation by Archbishop Theodore of Tarsus (668–690).</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>The Bank's lending and operational decisions are made by a president and a board of 25 executive directors.</t>
+          <t>Nevertheless, a scholarly tradition observable in the 16th century claimed a far earlier 7th-century foundation by Archbishop Theodore of Tarsus (668–690).</t>
         </is>
       </c>
     </row>
@@ -1509,22 +1509,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>copmany</t>
+          <t>ubran</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>urban</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Whitley's copmany developed and sold one of the early residential areas, the Ocean View Tract.</t>
+          <t>The ubran population of the city is 330,836 (Ortahisar), with a metropolitan population of 822,270.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Whitley's company developed and sold one of the early residential areas, the Ocean View Tract.</t>
+          <t>The urban population of the city is 330,836 (Ortahisar), with a metropolitan population of 822,270.</t>
         </is>
       </c>
     </row>
@@ -1536,22 +1536,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Wesetrn</t>
+          <t>calssical</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Western</t>
+          <t>classical</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Having survived the events that caused the fall of the Wesetrn Roman Empire in the 5th century AD, it endured until the fall of Constantinople to the Ottoman Empire in 1453.</t>
+          <t>The terminology changed in the 15th century as the renewed interest in the writings of Ancient Rome caused writers to prefer calssical terminology.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Having survived the events that caused the fall of the Western Roman Empire in the 5th century AD, it endured until the fall of Constantinople to the Ottoman Empire in 1453.</t>
+          <t>The terminology changed in the 15th century as the renewed interest in the writings of Ancient Rome caused writers to prefer classical terminology.</t>
         </is>
       </c>
     </row>
@@ -1563,22 +1563,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>soevreign</t>
+          <t>aobut</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>sovereign</t>
+          <t>about</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>The soevreign is the autonomous head of the state.</t>
+          <t>Ethical concerns have been raised aobut AI's long-term effects and potential existential risks, prompting discussions about regulatory policies to ensure the safety and benefits of the technology.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>The sovereign is the autonomous head of the state.</t>
+          <t>Ethical concerns have been raised about AI's long-term effects and potential existential risks, prompting discussions about regulatory policies to ensure the safety and benefits of the technology.</t>
         </is>
       </c>
     </row>
@@ -1590,22 +1590,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>itnerstate</t>
+          <t>Tukrish</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>interstate</t>
+          <t>Turkish</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Controversy, heresy, and the Western Schism within the Catholic Church paralleled the itnerstate conflict, civil strife, and peasant revolts that occurred in the kingdoms.</t>
+          <t>The city is Turkey's biggest international sea resort on the Tukrish Riviera.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Controversy, heresy, and the Western Schism within the Catholic Church paralleled the interstate conflict, civil strife, and peasant revolts that occurred in the kingdoms.</t>
+          <t>The city is Turkey's biggest international sea resort on the Turkish Riviera.</t>
         </is>
       </c>
     </row>
@@ -1617,22 +1617,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>inheirt</t>
+          <t>restaurnat</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>inherit</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>The Salic law, practiced in France and in the Italian territories of the House of Savoy, stipulated that only men could inheirt the crown.</t>
+          <t>Today, McDonald's has more than 40,000 restaurnat locations worldwide, with around one-quarter in the US.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>The Salic law, practiced in France and in the Italian territories of the House of Savoy, stipulated that only men could inherit the crown.</t>
+          <t>Today, McDonald's has more than 40,000 restaurant locations worldwide, with around one-quarter in the US.</t>
         </is>
       </c>
     </row>
@@ -1644,22 +1644,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>thier</t>
+          <t>economci</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>their</t>
+          <t>economic</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>The difference between the two areas of law has been debated as scholars disagree about the nature of thier relationship.</t>
+          <t>Climate change threatens people with increased flooding, extreme heat, increased food and water scarcity, more disease, and economci loss.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>The difference between the two areas of law has been debated as scholars disagree about the nature of their relationship.</t>
+          <t>Climate change threatens people with increased flooding, extreme heat, increased food and water scarcity, more disease, and economic loss.</t>
         </is>
       </c>
     </row>
@@ -1671,22 +1671,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>uSllivan</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Sullivan</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>In the 19th century, Louis uSllivan declared that "form follows function".</t>
+          <t>On average, the Supreme Court receives about 7,000 petitions for writs of certiorari each year, but only grants about 80.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>In the 19th century, Louis Sullivan declared that "form follows function".</t>
+          <t>On average, the Supreme Court receives about 7,000 petitions for writs of certiorari each year, but only grants about 80.</t>
         </is>
       </c>
     </row>
@@ -1698,22 +1698,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>oMore</t>
+          <t>judicail</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Moore</t>
+          <t>judicial</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Presley, on guitar and accompanied by lead guitarist Scotty oMore and bassist Bill Black, was a pioneer of rockabilly, an uptempo, backbeat-driven fusion of country music and rhythm and blues.</t>
+          <t>The first phase, In Iure, was the judicail process.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Presley, on guitar and accompanied by lead guitarist Scotty Moore and bassist Bill Black, was a pioneer of rockabilly, an uptempo, backbeat-driven fusion of country music and rhythm and blues.</t>
+          <t>The first phase, In Iure, was the judicial process.</t>
         </is>
       </c>
     </row>
@@ -1725,22 +1725,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>becmae</t>
+          <t>bureaucrcay</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>became</t>
+          <t>bureaucracy</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>He was self-educated and becmae a lawyer, Illinois state legislator, and U.S.</t>
+          <t>Communism's decline has been attributed to economic inefficiency and to authoritarianism and bureaucrcay within Communist governments.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>He was self-educated and became a lawyer, Illinois state legislator, and U.S.</t>
+          <t>Communism's decline has been attributed to economic inefficiency and to authoritarianism and bureaucracy within Communist governments.</t>
         </is>
       </c>
     </row>
@@ -1752,22 +1752,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>rKauss</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Krauss</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>AllMusic called it album "one of 2010’s most attention-getting debuts", writing that "Derek Miller and Alexis rKauss craft a sound that’s all climax," featuring a "boldness, immediacy, and sense of fun that’s missing from too much other music".</t>
+          <t>In 2000, the International Monetary Fund (IMF) identified four basic aspects of globalization: trade and transactions, capital and investment movements, migration and movement of people, and the dissemination of knowledge.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>AllMusic called it album "one of 2010’s most attention-getting debuts", writing that "Derek Miller and Alexis Krauss craft a sound that’s all climax," featuring a "boldness, immediacy, and sense of fun that’s missing from too much other music".</t>
+          <t>In 2000, the International Monetary Fund (IMF) identified four basic aspects of globalization: trade and transactions, capital and investment movements, migration and movement of people, and the dissemination of knowledge.</t>
         </is>
       </c>
     </row>
@@ -1779,22 +1779,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Distributino</t>
+          <t>Amreican</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>American</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>His first scientific work was The Structure and Distributino of Coral Reefs (1842).</t>
+          <t>In addition, 574 Native American tribes have sovereignty rights, and there are 326 Native Amreican reservations.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>His first scientific work was The Structure and Distribution of Coral Reefs (1842).</t>
+          <t>In addition, 574 Native American tribes have sovereignty rights, and there are 326 Native American reservations.</t>
         </is>
       </c>
     </row>
@@ -1806,22 +1806,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>wihtin</t>
+          <t>ccyling</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>within</t>
+          <t>cycling</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Other major cities wihtin the country include Kisumu, Nakuru and Eldoret.</t>
+          <t>Medicina has a football and a basketball team, both playing in lower leagues, as well as a ccyling team and a cycling development center for youth.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Other major cities within the country include Kisumu, Nakuru and Eldoret.</t>
+          <t>Medicina has a football and a basketball team, both playing in lower leagues, as well as a cycling team and a cycling development center for youth.</t>
         </is>
       </c>
     </row>
@@ -1833,22 +1833,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>interdepnedence</t>
+          <t>stereotyipcally</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>interdependence</t>
+          <t>stereotypically</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Globalization describes the growing interdepnedence of the world's economies, cultures, and populations, brought about by cross-border trade in goods and services, technology, and flows of investment, people, and information.</t>
+          <t>The chemistry laboratory stereotyipcally uses various forms of laboratory glassware.</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Globalization describes the growing interdependence of the world's economies, cultures, and populations, brought about by cross-border trade in goods and services, technology, and flows of investment, people, and information.</t>
+          <t>The chemistry laboratory stereotypically uses various forms of laboratory glassware.</t>
         </is>
       </c>
     </row>
@@ -1860,22 +1860,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>secodn</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Then the secodn phase would start, the Apud Iudicem.</t>
+          <t>The historic centre of Istanbul is a UNESCO World Heritage Site.</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Then the second phase would start, the Apud Iudicem.</t>
+          <t>The historic centre of Istanbul is a UNESCO World Heritage Site.</t>
         </is>
       </c>
     </row>
@@ -1887,22 +1887,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>contemporareis</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>contemporaries</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Similarly, their Islamic contemporareis called their empire the "land of the Romans" (Bilād al-Rūm).</t>
+          <t>While the position does not have a formal term limit, incumbent secretary-generals have avoided seeking a third term since the 1981 selection, when China cast a record 16 vetoes against a third term for Kurt Waldheim.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Similarly, their Islamic contemporaries called their empire the "land of the Romans" (Bilād al-Rūm).</t>
+          <t>While the position does not have a formal term limit, incumbent secretary-generals have avoided seeking a third term since the 1981 selection, when China cast a record 16 vetoes against a third term for Kurt Waldheim.</t>
         </is>
       </c>
     </row>
@@ -1914,22 +1914,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>followde</t>
+          <t>conrtol</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>followed</t>
+          <t>control</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Its most populous city is São Paulo, followde by Rio de Janeiro.</t>
+          <t>Turkey's concept of laiklik ("laicism") calls for the separation of state and religion, but also describes the state's stance as one of "active neutrality", which involves state conrtol and legal regulation of religion.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Its most populous city is São Paulo, followed by Rio de Janeiro.</t>
+          <t>Turkey's concept of laiklik ("laicism") calls for the separation of state and religion, but also describes the state's stance as one of "active neutrality", which involves state control and legal regulation of religion.</t>
         </is>
       </c>
     </row>
@@ -1941,22 +1941,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>powesr</t>
+          <t>insttiutions</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>powers</t>
+          <t>institutions</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Executive managers hold executive powesr delegated to them with and by authority of a board of directors and/or the shareholders.</t>
+          <t>All of the colleges are self-governing insttiutions within the university, managing their own personnel and policies, and all students are required to have a college affiliation within the university.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Executive managers hold executive powers delegated to them with and by authority of a board of directors and/or the shareholders.</t>
+          <t>All of the colleges are self-governing institutions within the university, managing their own personnel and policies, and all students are required to have a college affiliation within the university.</t>
         </is>
       </c>
     </row>
@@ -1968,22 +1968,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>regraded</t>
+          <t>estabilshed</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>regarded</t>
+          <t>established</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Referred to as the "King of Rock and Roll", he is widely regraded as one of the most culturally significant figures of the 20th century.</t>
+          <t>Darwin's work estabilshed evolutionary descent with modification as the dominant scientific explanation of natural diversification.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Referred to as the "King of Rock and Roll", he is widely regarded as one of the most culturally significant figures of the 20th century.</t>
+          <t>Darwin's work established evolutionary descent with modification as the dominant scientific explanation of natural diversification.</t>
         </is>
       </c>
     </row>
@@ -1995,22 +1995,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>contemoprary</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>contemporary</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>From prehistoric cave paintings during the Upper Palaeolithic, to ancient and contemoprary forms of rituals, to modern-day films, the arts have registered, embodied, and preserved the ever-shifting relationships of humans with each other and the world.</t>
+          <t>The January 1975 issue of Popular Electronics featured Micro Instrumentation and Telemetry Systems's (MITS) Altair 8800 microcomputer, which inspired Allen to suggest that they could program a BASIC interpreter for the device.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>From prehistoric cave paintings during the Upper Palaeolithic, to ancient and contemporary forms of rituals, to modern-day films, the arts have registered, embodied, and preserved the ever-shifting relationships of humans with each other and the world.</t>
+          <t>The January 1975 issue of Popular Electronics featured Micro Instrumentation and Telemetry Systems's (MITS) Altair 8800 microcomputer, which inspired Allen to suggest that they could program a BASIC interpreter for the device.</t>
         </is>
       </c>
     </row>
@@ -2022,22 +2022,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>cerdited</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>credited</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Its present use first appeared in Renaissance Germany in the works of Magnus Hundt and Otto Casmann.</t>
+          <t>Often regarded as one of the most influential entertainment brands in history, Disney is cerdited with revolutionizing the animation industry.</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Its present use first appeared in Renaissance Germany in the works of Magnus Hundt and Otto Casmann.</t>
+          <t>Often regarded as one of the most influential entertainment brands in history, Disney is credited with revolutionizing the animation industry.</t>
         </is>
       </c>
     </row>
@@ -2049,22 +2049,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>spychologists</t>
+          <t>seaprates</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>psychologists</t>
+          <t>separates</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Biological spychologists seek an understanding of the emergent properties of brains, linking the discipline to neuroscience.</t>
+          <t>The general approach allows philosophers to ask questions about, for example, what seaprates law from morality, politics, or practical reason.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Biological psychologists seek an understanding of the emergent properties of brains, linking the discipline to neuroscience.</t>
+          <t>The general approach allows philosophers to ask questions about, for example, what separates law from morality, politics, or practical reason.</t>
         </is>
       </c>
     </row>
@@ -2076,22 +2076,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>defiintion</t>
+          <t>curretn</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>definition</t>
+          <t>current</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>In recent centuries, the defiintion has expanded to include oral literature, much of which has been transcribed.</t>
+          <t>Its curretn constitution was adopted on 7 November 1982 after a constitutional referendum.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>In recent centuries, the definition has expanded to include oral literature, much of which has been transcribed.</t>
+          <t>Its current constitution was adopted on 7 November 1982 after a constitutional referendum.</t>
         </is>
       </c>
     </row>
@@ -2103,22 +2103,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>colud</t>
+          <t>assignde</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>could</t>
+          <t>assigned</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Revered for his technological ingenuity, he conceptualised flying machines, a type of armoured fighting vehicle, concentrated solar power, a ratio machine that colud be used in an adding machine, and the double hull.</t>
+          <t>Justices were required to hold circuit court twice a year in their assignde judicial district.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Revered for his technological ingenuity, he conceptualised flying machines, a type of armoured fighting vehicle, concentrated solar power, a ratio machine that could be used in an adding machine, and the double hull.</t>
+          <t>Justices were required to hold circuit court twice a year in their assigned judicial district.</t>
         </is>
       </c>
     </row>
@@ -2130,22 +2130,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Conseravtism</t>
+          <t>introdcued</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Conservatism</t>
+          <t>introduced</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Conseravtism may be either libertarian or authoritarian, populist or elitist, progressive or reactionary, moderate or extreme.</t>
+          <t>The idea of sustainable architecture was introdcued in the late 20th century.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Conservatism may be either libertarian or authoritarian, populist or elitist, progressive or reactionary, moderate or extreme.</t>
+          <t>The idea of sustainable architecture was introduced in the late 20th century.</t>
         </is>
       </c>
     </row>
@@ -2157,22 +2157,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>practiecs</t>
+          <t>Sparatn</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>practices</t>
+          <t>Spartan</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>For example, that the United Kingdom has a Parliament means that it practiecs fusion of powers, while Mexico's Congress of the Union informs that Mexico practices the separation of powers.</t>
+          <t>The Sparatn election of the Ephors, therefore, also predates the reforms of Solon in Athens by approximately 180 years.</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>For example, that the United Kingdom has a Parliament means that it practices fusion of powers, while Mexico's Congress of the Union informs that Mexico practices the separation of powers.</t>
+          <t>The Spartan election of the Ephors, therefore, also predates the reforms of Solon in Athens by approximately 180 years.</t>
         </is>
       </c>
     </row>
@@ -2184,22 +2184,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Emprie</t>
+          <t>eScond</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Empire</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>With the advent of the Ottoman Emprie in 1299, the Byzantine Empire began to lose territories, and the city began to lose population.</t>
+          <t>In the 20th century, as a result of scientific progress and the eScond Industrial Revolution, technology stopped being considered a distinct academic discipline and took on the meaning: the systemic use of knowledge to practical ends.</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>With the advent of the Ottoman Empire in 1299, the Byzantine Empire began to lose territories, and the city began to lose population.</t>
+          <t>In the 20th century, as a result of scientific progress and the Second Industrial Revolution, technology stopped being considered a distinct academic discipline and took on the meaning: the systemic use of knowledge to practical ends.</t>
         </is>
       </c>
     </row>
@@ -2211,22 +2211,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>sttaes</t>
+          <t>amrkets</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>states</t>
+          <t>markets</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Lassa Oppenheim defined it in his treatise as "a law between sovereign and equal sttaes based on the common consent of these states" and this definition has been largely adopted by international legal scholars.</t>
+          <t>Trading globally may give consumers and countries the opportunity to be exposed to new amrkets and products.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Lassa Oppenheim defined it in his treatise as "a law between sovereign and equal states based on the common consent of these states" and this definition has been largely adopted by international legal scholars.</t>
+          <t>Trading globally may give consumers and countries the opportunity to be exposed to new markets and products.</t>
         </is>
       </c>
     </row>
@@ -2238,22 +2238,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>monacrh</t>
+          <t>expressino</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>monarch</t>
+          <t>expression</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>In some monarchies the monacrh may also exercise executive powers (known as the royal prerogative) without the approval of parliament.</t>
+          <t>Therefore, freedom of speech and expressino may not be recognized as absolute.</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>In some monarchies the monarch may also exercise executive powers (known as the royal prerogative) without the approval of parliament.</t>
+          <t>Therefore, freedom of speech and expression may not be recognized as absolute.</t>
         </is>
       </c>
     </row>
@@ -2265,22 +2265,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Quadrilatreal</t>
+          <t>hwich</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Quadrilateral</t>
+          <t>which</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Treaty of Pilar, Treaty of Benegas, Quadrilatreal Treaty).</t>
+          <t>Geology is a branch of natural science concerned with the Earth and other astronomical bodies, the rocks of hwich they are composed, and the processes by which they change over time.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Treaty of Pilar, Treaty of Benegas, Quadrilateral Treaty).</t>
+          <t>Geology is a branch of natural science concerned with the Earth and other astronomical bodies, the rocks of which they are composed, and the processes by which they change over time.</t>
         </is>
       </c>
     </row>
@@ -2292,22 +2292,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>eTchnology</t>
+          <t>expolres</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>explores</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>eTchnology plays a critical role in science, engineering, and everyday life.</t>
+          <t>Archaeology, often referred to as the "anthropology of the past," expolres human activity by examining physical remains.</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Technology plays a critical role in science, engineering, and everyday life.</t>
+          <t>Archaeology, often referred to as the "anthropology of the past," explores human activity by examining physical remains.</t>
         </is>
       </c>
     </row>
@@ -2319,22 +2319,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>bornze</t>
+          <t>iVtruvian</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>Vitruvian</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>They won the bornze medal.</t>
+          <t>The Last Supper is the most reproduced religious painting of all time and his iVtruvian Man drawing is also regarded as a cultural icon.</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>They won the bronze medal.</t>
+          <t>The Last Supper is the most reproduced religious painting of all time and his Vitruvian Man drawing is also regarded as a cultural icon.</t>
         </is>
       </c>
     </row>
@@ -2346,22 +2346,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>commtitee</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>committee</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>On September 28, 1781, Washington commanded the Continental Army's capture of a British army under General Cornwallis at the Siege of Yorktown, leading to the collapse of King George's control of Parliament.</t>
+          <t>To select the commtitee members, a young boy was asked to take out as many leaves as the number of positions available.</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>On September 28, 1781, Washington commanded the Continental Army's capture of a British army under General Cornwallis at the Siege of Yorktown, leading to the collapse of King George's control of Parliament.</t>
+          <t>To select the committee members, a young boy was asked to take out as many leaves as the number of positions available.</t>
         </is>
       </c>
     </row>
@@ -2373,22 +2373,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>dAdis</t>
+          <t>Nteflix</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Addis</t>
+          <t>Netflix</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>The city is situated along the road that connects dAdis Ababa with Dire Dawa.</t>
+          <t>Nteflix launched as the first DVD rental and sales website with 30 employees and 925 titles available—nearly all DVDs published.</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>The city is situated along the road that connects Addis Ababa with Dire Dawa.</t>
+          <t>Netflix launched as the first DVD rental and sales website with 30 employees and 925 titles available—nearly all DVDs published.</t>
         </is>
       </c>
     </row>
@@ -2400,22 +2400,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>acbin</t>
+          <t>rGeece</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>cabin</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Born in a one-room log acbin in Kentucky on February 12, 1809, Abraham Lincoln was raised on Sinking Spring Farm near Hodgenville, Kentucky.</t>
+          <t>Italy, Bulgaria, Romania, rGeece and others entered the war from 1915 onward.</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Born in a one-room log cabin in Kentucky on February 12, 1809, Abraham Lincoln was raised on Sinking Spring Farm near Hodgenville, Kentucky.</t>
+          <t>Italy, Bulgaria, Romania, Greece and others entered the war from 1915 onward.</t>
         </is>
       </c>
     </row>
@@ -2427,22 +2427,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ocuntry</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>country</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>It is also the world's fifth-largest ocuntry by area and the seventh-largest by population, with over 213 million people.</t>
+          <t>It is common for the members of a party to hold similar ideas about politics, and parties may promote specific ideological or policy goals.</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>It is also the world's fifth-largest country by area and the seventh-largest by population, with over 213 million people.</t>
+          <t>It is common for the members of a party to hold similar ideas about politics, and parties may promote specific ideological or policy goals.</t>
         </is>
       </c>
     </row>
@@ -2454,22 +2454,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>bewteen</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>between</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>In the early 2nd millennium BC, since silver used in exchange for livestock or grain could not multiply of its own, the Laws of Eshnunna instituted a legal interest rate, specifically on deposits of dowry.</t>
+          <t>Public memory of 20th-century Marxist-Leninist states has been described as a battleground bewteen anti-communism and anti anti-communism.</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>In the early 2nd millennium BC, since silver used in exchange for livestock or grain could not multiply of its own, the Laws of Eshnunna instituted a legal interest rate, specifically on deposits of dowry.</t>
+          <t>Public memory of 20th-century Marxist-Leninist states has been described as a battleground between anti-communism and anti anti-communism.</t>
         </is>
       </c>
     </row>
@@ -2481,22 +2481,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Aiers</t>
+          <t>ebcame</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Aires</t>
+          <t>became</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Rosas was elected Governor of Buenos Aiers later that year by the Provincial Legislature.</t>
+          <t>He was self-educated and ebcame a lawyer, Illinois state legislator, and U.S.</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Rosas was elected Governor of Buenos Aires later that year by the Provincial Legislature.</t>
+          <t>He was self-educated and became a lawyer, Illinois state legislator, and U.S.</t>
         </is>
       </c>
     </row>
@@ -2508,22 +2508,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>raound</t>
+          <t>peridos</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>around</t>
+          <t>periods</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Cambridge's 116 libraries hold a total of approximately 16 million books, raound 9 million of which are in Cambridge University Library, a legal deposit library and one of the world's largest academic libraries.</t>
+          <t>Six presidents took over the presidency of Egypt after the abolition of the monarchy in 1953, in peridos that included short transitional periods.</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Cambridge's 116 libraries hold a total of approximately 16 million books, around 9 million of which are in Cambridge University Library, a legal deposit library and one of the world's largest academic libraries.</t>
+          <t>Six presidents took over the presidency of Egypt after the abolition of the monarchy in 1953, in periods that included short transitional periods.</t>
         </is>
       </c>
     </row>
@@ -2535,22 +2535,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>medicla</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>medical</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Together, the medicla history and the physical examination help to determine a diagnosis and devise the treatment plan.</t>
+          <t>The linguistic and cultural turns of the mid-20th century, especially, have led to increasingly interpretative, hermeneutic, and philosophical approaches towards the analysis of society.</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Together, the medical history and the physical examination help to determine a diagnosis and devise the treatment plan.</t>
+          <t>The linguistic and cultural turns of the mid-20th century, especially, have led to increasingly interpretative, hermeneutic, and philosophical approaches towards the analysis of society.</t>
         </is>
       </c>
     </row>
@@ -2562,22 +2562,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>cpaital</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>capital</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>These activities include fields such as human development (e.g.</t>
+          <t>Thenceforth part of the Roman and later Byzantine Empire, the city was the cpaital of the Empire of Trebizond, one of the successor states of the Byzantine Empire after the Fourth Crusade in 1204.</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>These activities include fields such as human development (e.g.</t>
+          <t>Thenceforth part of the Roman and later Byzantine Empire, the city was the capital of the Empire of Trebizond, one of the successor states of the Byzantine Empire after the Fourth Crusade in 1204.</t>
         </is>
       </c>
     </row>
@@ -2589,22 +2589,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>denoets</t>
+          <t>titel</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>denotes</t>
+          <t>title</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>In particular, the term denoets publications of this type distributed by university administrations at the start of the academic year, with the intention of helping students to get to know each other.</t>
+          <t>Throughout Argentine history, the office of head of state has undergone many changes, both in its titel as in its features and powers.</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>In particular, the term denotes publications of this type distributed by university administrations at the start of the academic year, with the intention of helping students to get to know each other.</t>
+          <t>Throughout Argentine history, the office of head of state has undergone many changes, both in its title as in its features and powers.</t>
         </is>
       </c>
     </row>
@@ -2616,22 +2616,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>Shakepseare</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>Shakespeare</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>On January 1, 1863, he issued the Emancipation Proclamation, which declared the slaves in the states "in rebellion" to be free.</t>
+          <t>Its preface includes a prescient poem by Ben Jonson, a former rival of Shakespeare, who hailed Shakepseare with the now-famous epithet: "not of an age, but for all time".</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>On January 1, 1863, he issued the Emancipation Proclamation, which declared the slaves in the states "in rebellion" to be free.</t>
+          <t>Its preface includes a prescient poem by Ben Jonson, a former rival of Shakespeare, who hailed Shakespeare with the now-famous epithet: "not of an age, but for all time".</t>
         </is>
       </c>
     </row>
@@ -2643,22 +2643,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>infxi</t>
+          <t>cnetury</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>infix</t>
+          <t>century</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Several proposals exist, a commonly mentioned one connecting it to the Proto-Indo-European root *wed- 'water' or a nasal infxi variant *wend-.</t>
+          <t>Having survived the events that caused the fall of the Western Roman Empire in the 5th cnetury AD, it endured until the fall of Constantinople to the Ottoman Empire in 1453.</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Several proposals exist, a commonly mentioned one connecting it to the Proto-Indo-European root *wed- 'water' or a nasal infix variant *wend-.</t>
+          <t>Having survived the events that caused the fall of the Western Roman Empire in the 5th century AD, it endured until the fall of Constantinople to the Ottoman Empire in 1453.</t>
         </is>
       </c>
     </row>
@@ -2670,22 +2670,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ebcoming</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>becoming</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>After ebcoming a success by the early 1940s, Disney diversified into live-action films, television, and theme parks in the 1950s.</t>
+          <t>On November 13, 2006, YouTube was purchased by Google for US$1.65 billion (equivalent to $2.39 billion in 2024).</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>After becoming a success by the early 1940s, Disney diversified into live-action films, television, and theme parks in the 1950s.</t>
+          <t>On November 13, 2006, YouTube was purchased by Google for US$1.65 billion (equivalent to $2.39 billion in 2024).</t>
         </is>
       </c>
     </row>
@@ -2697,22 +2697,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>vicotry</t>
+          <t>defamaiton</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>victory</t>
+          <t>defamation</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Mandela and de Klerk led efforts to negotiate an end to apartheid, which resulted in the 1994 multiracial general election in which Mandela led the ANC to vicotry and became president.</t>
+          <t>Excluded were defamaiton of the king's majesty and the Swedish Church.</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Mandela and de Klerk led efforts to negotiate an end to apartheid, which resulted in the 1994 multiracial general election in which Mandela led the ANC to victory and became president.</t>
+          <t>Excluded were defamation of the king's majesty and the Swedish Church.</t>
         </is>
       </c>
     </row>
@@ -2724,22 +2724,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>edmocratic</t>
+          <t>baolish</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>democratic</t>
+          <t>abolish</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>He was the country's first Black head of state and the first elected in a fully representative edmocratic election.</t>
+          <t>Lincoln is remembered as a martyr and a national hero for his wartime leadership and for his efforts to preserve the Union and baolish slavery.</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>He was the country's first Black head of state and the first elected in a fully representative democratic election.</t>
+          <t>Lincoln is remembered as a martyr and a national hero for his wartime leadership and for his efforts to preserve the Union and abolish slavery.</t>
         </is>
       </c>
     </row>
@@ -2751,22 +2751,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>constitutionla</t>
+          <t>Laitn</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>constitutional</t>
+          <t>Latin</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>The office and its functions are instead governed by constitutionla conventions and modelled on the same office in the United Kingdom.</t>
+          <t>In the Spanish-speaking parts of Laitn America the term "federalist" is used in reference to the politics of 19th-century Argentina and Colombia.</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>The office and its functions are instead governed by constitutional conventions and modelled on the same office in the United Kingdom.</t>
+          <t>In the Spanish-speaking parts of Latin America the term "federalist" is used in reference to the politics of 19th-century Argentina and Colombia.</t>
         </is>
       </c>
     </row>
@@ -2778,22 +2778,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>rboke</t>
+          <t>lPains</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>broke</t>
+          <t>Plains</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>As many displaced Hindus, Muslims, and Sikhs made their way to their new lands, religious violence rboke out, especially in Punjab and Bengal.</t>
+          <t>For instance, Winnipeg, a city in the landlocked Great lPains region within Canada, has a January high of −11.3 °C (11.7 °F) and a low of −21.4 °C (−6.5 °F).</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>As many displaced Hindus, Muslims, and Sikhs made their way to their new lands, religious violence broke out, especially in Punjab and Bengal.</t>
+          <t>For instance, Winnipeg, a city in the landlocked Great Plains region within Canada, has a January high of −11.3 °C (11.7 °F) and a low of −21.4 °C (−6.5 °F).</t>
         </is>
       </c>
     </row>
@@ -2805,22 +2805,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ancinet</t>
+          <t>stduy</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ancient</t>
+          <t>study</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Some focus on specific time periods, such as ancinet history, while others concentrate on particular geographic regions, such as the history of Africa.</t>
+          <t>The term sociology was coined in the late 18th century to describe the scientific stduy of society.</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Some focus on specific time periods, such as ancient history, while others concentrate on particular geographic regions, such as the history of Africa.</t>
+          <t>The term sociology was coined in the late 18th century to describe the scientific study of society.</t>
         </is>
       </c>
     </row>
@@ -2832,22 +2832,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>eGneral</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>No candidate has ever been rejected by the eGneral Assembly, and only once, in 1950, has a candidate been voted upon despite a UNSC veto.</t>
+          <t>It was not until the emergence of the modern evolutionary synthesis from the 1930s to the 1950s that a broad consensus developed in which natural selection was the basic mechanism of evolution.</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>No candidate has ever been rejected by the General Assembly, and only once, in 1950, has a candidate been voted upon despite a UNSC veto.</t>
+          <t>It was not until the emergence of the modern evolutionary synthesis from the 1930s to the 1950s that a broad consensus developed in which natural selection was the basic mechanism of evolution.</t>
         </is>
       </c>
     </row>
@@ -2859,22 +2859,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>accordnig</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>according</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>His final book was The Formation of Vegetable Mould, through the Actions of Worms (1881).</t>
+          <t>Sub committees are established accordnig to the issue that the committee receives.</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>His final book was The Formation of Vegetable Mould, through the Actions of Worms (1881).</t>
+          <t>Sub committees are established according to the issue that the committee receives.</t>
         </is>
       </c>
     </row>
@@ -2886,22 +2886,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>whihc</t>
+          <t>supoprted</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>which</t>
+          <t>supported</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>The ban on any sort of presidential re-election dates back to the aftermath of the Porfiriato and the Mexican Revolution, whihc erupted after Porfirio Díaz's fraudulent victory on his seventh re-election in a row.</t>
+          <t>In domestic policy, Merkel's Energiewende programme supoprted the development of renewable energy sources and eventually phased out the use of nuclear power in Germany.</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>The ban on any sort of presidential re-election dates back to the aftermath of the Porfiriato and the Mexican Revolution, which erupted after Porfirio Díaz's fraudulent victory on his seventh re-election in a row.</t>
+          <t>In domestic policy, Merkel's Energiewende programme supported the development of renewable energy sources and eventually phased out the use of nuclear power in Germany.</t>
         </is>
       </c>
     </row>
@@ -2913,22 +2913,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>wheer</t>
+          <t>Prmie</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>where</t>
+          <t>Prime</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>In 1886, he moved to Paris, wheer he met members of the artistic avant-garde, including Émile Bernard and Paul Gauguin, who were seeking new paths beyond Impressionism.</t>
+          <t>It was originally a ceremonial post, but became an executive post in 1984 when a new constitution abolished the post of Prmie Minister and transferred its powers to the state president.</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>In 1886, he moved to Paris, where he met members of the artistic avant-garde, including Émile Bernard and Paul Gauguin, who were seeking new paths beyond Impressionism.</t>
+          <t>It was originally a ceremonial post, but became an executive post in 1984 when a new constitution abolished the post of Prime Minister and transferred its powers to the state president.</t>
         </is>
       </c>
     </row>
@@ -2940,22 +2940,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>iLnnean</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Linnean</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>He was writing up his theory in 1858 when Wallace sent him an essay that described the same idea, prompting the immediate joint submission of both their theories to the iLnnean Society of London.</t>
+          <t>In 2000, a format change was implemented from a slim quarterly academic journal to a bimonthly magazine.</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>He was writing up his theory in 1858 when Wallace sent him an essay that described the same idea, prompting the immediate joint submission of both their theories to the Linnean Society of London.</t>
+          <t>In 2000, a format change was implemented from a slim quarterly academic journal to a bimonthly magazine.</t>
         </is>
       </c>
     </row>
@@ -2967,22 +2967,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>Caesarae</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>Caesarea</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Comte had earlier used the term social physics, but it had been subsequently appropriated by others, most notably the Belgian statistician Adolphe Quetelet.</t>
+          <t>The only two cities of Cappadocia considered by Strabo to deserve that appellation were Caesarae (originally known as Mazaca) and Tyana, not far from the foot of the Taurus.</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Comte had earlier used the term social physics, but it had been subsequently appropriated by others, most notably the Belgian statistician Adolphe Quetelet.</t>
+          <t>The only two cities of Cappadocia considered by Strabo to deserve that appellation were Caesarea (originally known as Mazaca) and Tyana, not far from the foot of the Taurus.</t>
         </is>
       </c>
     </row>
@@ -2994,22 +2994,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>sanctinos</t>
+          <t>erserve</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>sanctions</t>
+          <t>reserve</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>International sanctinos are measures that can be used by individual countries or multilateral and regional organizations against other states or organizations.</t>
+          <t>The head of state is typically a ceremonial officer, though they may exercise erserve powers to check the Prime Minister in unusual situations.</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>International sanctions are measures that can be used by individual countries or multilateral and regional organizations against other states or organizations.</t>
+          <t>The head of state is typically a ceremonial officer, though they may exercise reserve powers to check the Prime Minister in unusual situations.</t>
         </is>
       </c>
     </row>
@@ -3021,22 +3021,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>presdient</t>
+          <t>Vcitor</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>He was succeeded by his vice president, Hosni Mubarak, who was elected presdient by plebiscite and remained so for nearly 30 years.</t>
+          <t>Presley's first RCA Vcitor single, "Heartbreak Hotel", was released in January 1956 and became a number-one hit in the US.</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>He was succeeded by his vice president, Hosni Mubarak, who was elected president by plebiscite and remained so for nearly 30 years.</t>
+          <t>Presley's first RCA Victor single, "Heartbreak Hotel", was released in January 1956 and became a number-one hit in the US.</t>
         </is>
       </c>
     </row>
@@ -3048,22 +3048,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>autohrity</t>
+          <t>CRAES</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>authority</t>
+          <t>CARES</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>James Madison and others, advocated for a national judicial autohrity chosen by the national legislature.</t>
+          <t>In response to the COVID-19 pandemic in 2020, he downplayed its severity, contradicted health officials, and signed the CRAES Act.</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>James Madison and others, advocated for a national judicial authority chosen by the national legislature.</t>
+          <t>In response to the COVID-19 pandemic in 2020, he downplayed its severity, contradicted health officials, and signed the CARES Act.</t>
         </is>
       </c>
     </row>
@@ -3075,22 +3075,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>serviecs</t>
+          <t>ewbsite</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>services</t>
+          <t>website</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>More recently, it has been criticized for its role in providing serviecs to Israel during the Gaza war.</t>
+          <t>The music video for "Infinity Guitars" premiered on NME's ewbsite on September 19, 2010.</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>More recently, it has been criticized for its role in providing services to Israel during the Gaza war.</t>
+          <t>The music video for "Infinity Guitars" premiered on NME's website on September 19, 2010.</t>
         </is>
       </c>
     </row>
@@ -3102,22 +3102,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ntaional</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>national</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>To be represented in Parliament, a party must win at least 7% of the ntaional vote in a national parliamentary election.</t>
+          <t>The Golden Arches logo was introduced in 1953.</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>To be represented in Parliament, a party must win at least 7% of the national vote in a national parliamentary election.</t>
+          <t>The Golden Arches logo was introduced in 1953.</t>
         </is>
       </c>
     </row>
@@ -3129,22 +3129,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>federla</t>
+          <t>megadvierse</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>federal</t>
+          <t>megadiverse</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>The president also plays a leading role in federla legislation and domestic policymaking.</t>
+          <t>It is a megadvierse country, with the world's third-largest land area and third-largest population, exceeding 341 million.</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>The president also plays a leading role in federal legislation and domestic policymaking.</t>
+          <t>It is a megadiverse country, with the world's third-largest land area and third-largest population, exceeding 341 million.</t>
         </is>
       </c>
     </row>
@@ -3156,22 +3156,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ofifcial</t>
+          <t>Februayr</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>official</t>
+          <t>February</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>The Palácio do Planalto in Brasília is the ofifcial workplace of the president and the Palácio da Alvorada their official residence.</t>
+          <t>Wilcox, who had purchased 120 acres on Februayr 1, 1887.</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>The Palácio do Planalto in Brasília is the official workplace of the president and the Palácio da Alvorada their official residence.</t>
+          <t>Wilcox, who had purchased 120 acres on February 1, 1887.</t>
         </is>
       </c>
     </row>
@@ -3183,22 +3183,22 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Legla</t>
+          <t>placse</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Legal</t>
+          <t>places</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Legla rights, in contrast, are based on a society's customs, laws, statutes or actions by legislatures.</t>
+          <t>The region is mentioned in the Jewish Mishnah, in Ketubot 13:11, and in several placse in the Talmud, including Yevamot 121a, Hullin 47b.</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Legal rights, in contrast, are based on a society's customs, laws, statutes or actions by legislatures.</t>
+          <t>The region is mentioned in the Jewish Mishnah, in Ketubot 13:11, and in several places in the Talmud, including Yevamot 121a, Hullin 47b.</t>
         </is>
       </c>
     </row>
@@ -3210,22 +3210,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>eMiji</t>
+          <t>transmittnig</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Meiji</t>
+          <t>transmitting</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Theoretically, the last ritsuryō code, the Yōrō Code enacted in 752, was still in force at the time of the eMiji Restoration.</t>
+          <t>Literature is a method of recording, preserving, and transmittnig knowledge and entertainment.</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Theoretically, the last ritsuryō code, the Yōrō Code enacted in 752, was still in force at the time of the Meiji Restoration.</t>
+          <t>Literature is a method of recording, preserving, and transmitting knowledge and entertainment.</t>
         </is>
       </c>
     </row>
@@ -3237,22 +3237,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>manlte</t>
+          <t>bsaed</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>based</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Beneath the lithosphere lies the manlte which is heated by the decay of radioactive elements.</t>
+          <t>Mos Maiorum was a set of rules of conduct bsaed on social norms created over the years by predecessors.</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Beneath the lithosphere lies the mantle which is heated by the decay of radioactive elements.</t>
+          <t>Mos Maiorum was a set of rules of conduct based on social norms created over the years by predecessors.</t>
         </is>
       </c>
     </row>
@@ -3264,22 +3264,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>lEvis</t>
+          <t>Ameircan</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Elvis</t>
+          <t>American</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>lEvis Aaron Presley was born on January 8, 1935, in Tupelo, Mississippi, to Gladys Love (née Smith) and Vernon Presley.</t>
+          <t>Netflix is an Ameircan subscription video on-demand over-the-top streaming service.</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Elvis Aaron Presley was born on January 8, 1935, in Tupelo, Mississippi, to Gladys Love (née Smith) and Vernon Presley.</t>
+          <t>Netflix is an American subscription video on-demand over-the-top streaming service.</t>
         </is>
       </c>
     </row>
@@ -3291,22 +3291,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>rdaws</t>
+          <t>dAama</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>draws</t>
+          <t>Adama</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>It relies especially on empirically-oriented social theory, but rdaws theoretical resources from diverse disciplines.</t>
+          <t>dAama is a busy transportation center.</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>It relies especially on empirically-oriented social theory, but draws theoretical resources from diverse disciplines.</t>
+          <t>Adama is a busy transportation center.</t>
         </is>
       </c>
     </row>
@@ -3318,22 +3318,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>researchesr</t>
+          <t>Royla</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>researchers</t>
+          <t>Royal</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>CPJ staff applies strict criteria for each case; researchesr independently investigate and verify the circumstances behind each death or imprisonment.</t>
+          <t>He resigned in November 1915 and joined the Royla Scots Fusiliers on the Western Front for six months.</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>CPJ staff applies strict criteria for each case; researchers independently investigate and verify the circumstances behind each death or imprisonment.</t>
+          <t>He resigned in November 1915 and joined the Royal Scots Fusiliers on the Western Front for six months.</t>
         </is>
       </c>
     </row>
@@ -3345,22 +3345,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>informtaion</t>
+          <t>ibrth</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>information</t>
+          <t>birth</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>It can be attributed to a series of factors, including the reduction of barriers to international trade, the liberalization of capital movements, the development of transportation infrastructure, and the advancement of informtaion and communication technologies.</t>
+          <t>His date of ibrth is unknown but is traditionally observed on 23 April, Saint George's Day.</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>It can be attributed to a series of factors, including the reduction of barriers to international trade, the liberalization of capital movements, the development of transportation infrastructure, and the advancement of information and communication technologies.</t>
+          <t>His date of birth is unknown but is traditionally observed on 23 April, Saint George's Day.</t>
         </is>
       </c>
     </row>
@@ -3372,22 +3372,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Vcitory</t>
+          <t>Modenr</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Victory</t>
+          <t>Modern</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Vcitory in the 1775–1783 Revolutionary War brought international recognition of U.S.</t>
+          <t>Modenr examples include the Yang di-Pertuan Agong (lit.</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Victory in the 1775–1783 Revolutionary War brought international recognition of U.S.</t>
+          <t>Modern examples include the Yang di-Pertuan Agong (lit.</t>
         </is>
       </c>
     </row>
@@ -3399,22 +3399,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>separtaed</t>
+          <t>presenec</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>separated</t>
+          <t>presence</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Expression elements are separtaed by whitespace and are evaluated left-to-right.</t>
+          <t>Since then, the ISS has remained continuously inhabited for 25 years and 108 days, the longest continuous human presenec in space.</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Expression elements are separated by whitespace and are evaluated left-to-right.</t>
+          <t>Since then, the ISS has remained continuously inhabited for 25 years and 108 days, the longest continuous human presence in space.</t>
         </is>
       </c>
     </row>
@@ -3426,22 +3426,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>compayn</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Early employee Cindy Holland compared the compayn acquiring DVDs to "shoveling coal in the side door of the house".</t>
+          <t>Huntington, have added that while conservatism has core values, going back to the teachings of Edmund Burke, it is also a situational ideology, which aims to conserve diverse social traditions.</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Early employee Cindy Holland compared the company acquiring DVDs to "shoveling coal in the side door of the house".</t>
+          <t>Huntington, have added that while conservatism has core values, going back to the teachings of Edmund Burke, it is also a situational ideology, which aims to conserve diverse social traditions.</t>
         </is>
       </c>
     </row>
@@ -3453,22 +3453,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>uTrks</t>
+          <t>Aplolo</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Turks</t>
+          <t>Apollo</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>The uTrks checked their advance in the Battle of Sakarya and counter-attacked in the Great Offensive, which expelled Greek forces.</t>
+          <t>In 1969, Aplolo 11 was the first crewed mission to land on the Moon.</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>The Turks checked their advance in the Battle of Sakarya and counter-attacked in the Great Offensive, which expelled Greek forces.</t>
+          <t>In 1969, Apollo 11 was the first crewed mission to land on the Moon.</t>
         </is>
       </c>
     </row>
@@ -3480,22 +3480,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Ototman</t>
+          <t>sevred</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Ottoman</t>
+          <t>served</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>The establishing structure (Ruling institution of the Ototman Empire) of the Ottoman Empire (13th century) was an Islamic state in which the head of the Ottoman state was the Sultan.</t>
+          <t>A member of the Republican Party, he sevred as the 45th president from 2017 to 2021.</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>The establishing structure (Ruling institution of the Ottoman Empire) of the Ottoman Empire (13th century) was an Islamic state in which the head of the Ottoman state was the Sultan.</t>
+          <t>A member of the Republican Party, he served as the 45th president from 2017 to 2021.</t>
         </is>
       </c>
     </row>
@@ -3507,22 +3507,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>menaing</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>meaning</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>About 5,000 years ago, the first small city-states appeared.</t>
+          <t>It was proposed that Kat-patuka came from the Luwian language, menaing "Low Country".</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>About 5,000 years ago, the first small city-states appeared.</t>
+          <t>It was proposed that Kat-patuka came from the Luwian language, meaning "Low Country".</t>
         </is>
       </c>
     </row>
@@ -3534,22 +3534,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>pormoted</t>
+          <t>etrritorial</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>promoted</t>
+          <t>territorial</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>He pormoted the Thirteenth Amendment to the U.S.</t>
+          <t>In June 1941, Germany invaded the Soviet Union, opening the Eastern Front and initially making large etrritorial gains along with Axis allies.</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>He promoted the Thirteenth Amendment to the U.S.</t>
+          <t>In June 1941, Germany invaded the Soviet Union, opening the Eastern Front and initially making large territorial gains along with Axis allies.</t>
         </is>
       </c>
     </row>
@@ -3561,22 +3561,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>fuonded</t>
+          <t>amuont</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>founded</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Before the city was fuonded as a Greek colony the area was dominated by Colchians (west Georgian) and Chaldian (Anatolian) tribes.</t>
+          <t>The manifestation of meteorological winter in the northerly snow-prone latitudes is highly variable, depending on elevation, position versus marine winds, and the amuont of precipitation.</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Before the city was founded as a Greek colony the area was dominated by Colchians (west Georgian) and Chaldian (Anatolian) tribes.</t>
+          <t>The manifestation of meteorological winter in the northerly snow-prone latitudes is highly variable, depending on elevation, position versus marine winds, and the amount of precipitation.</t>
         </is>
       </c>
     </row>
@@ -3588,22 +3588,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Tasmanai</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Tasmania</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>He won the interstate championship for Tasmanai in 1993.</t>
+          <t>In the 19th century, Louis Sullivan declared that "form follows function".</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>He won the interstate championship for Tasmania in 1993.</t>
+          <t>In the 19th century, Louis Sullivan declared that "form follows function".</t>
         </is>
       </c>
     </row>
@@ -3615,22 +3615,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>membres</t>
+          <t>Shkaespeare</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>members</t>
+          <t>Shakespeare</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>This also reduces social categorization effects because it leads to team membres focusing more on their shared goals than on their differences.</t>
+          <t>At the age of 18, Shkaespeare married 26-year-old Anne Hathaway.</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>This also reduces social categorization effects because it leads to team members focusing more on their shared goals than on their differences.</t>
+          <t>At the age of 18, Shakespeare married 26-year-old Anne Hathaway.</t>
         </is>
       </c>
     </row>
@@ -3642,22 +3642,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>stetings</t>
+          <t>peirod</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>settings</t>
+          <t>period</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Typically the latter group of psychologists work in academic stetings (e.g., universities, medical schools, or hospitals).</t>
+          <t>The 17th century saw a transformative peirod in British history.</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Typically the latter group of psychologists work in academic settings (e.g., universities, medical schools, or hospitals).</t>
+          <t>The 17th century saw a transformative period in British history.</t>
         </is>
       </c>
     </row>
@@ -3669,22 +3669,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>fisrt</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>The Expression of the Emotions in Man and Animals (1872) was an early work of psychology, and one of the fisrt books to feature photographs.</t>
+          <t>The UK became the first industrialised country and was the world's foremost power for the majority of the 19th and early 20th centuries, particularly during the Pax Britannica between 1815 and 1914.</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>The Expression of the Emotions in Man and Animals (1872) was an early work of psychology, and one of the first books to feature photographs.</t>
+          <t>The UK became the first industrialised country and was the world's foremost power for the majority of the 19th and early 20th centuries, particularly during the Pax Britannica between 1815 and 1914.</t>
         </is>
       </c>
     </row>
@@ -3696,22 +3696,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>legislatiev</t>
+          <t>histroy</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>history</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>The civil rights movement achieved pivotal legislatiev gains in the Civil Rights Act of 1964, the Voting Rights Act of 1965, and the Fair Housing Act of 1968.</t>
+          <t>The Renaissance (UK: rin-AY-sənss, US: REN-ə-sahnss) is a European period of histroy and cultural movement, very roughly defined as covering the 14th through 17th centuries, though sometimes more narrowly defined for instance as only covering the 15th through 16th centuries.</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>The civil rights movement achieved pivotal legislative gains in the Civil Rights Act of 1964, the Voting Rights Act of 1965, and the Fair Housing Act of 1968.</t>
+          <t>The Renaissance (UK: rin-AY-sənss, US: REN-ə-sahnss) is a European period of history and cultural movement, very roughly defined as covering the 14th through 17th centuries, though sometimes more narrowly defined for instance as only covering the 15th through 16th centuries.</t>
         </is>
       </c>
     </row>
@@ -3723,22 +3723,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Camrbidge</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>The university's founding followed the arrival of scholars who left the University of Oxford for Camrbidge after a dispute with local townspeople.</t>
+          <t>Others explore the physiological and neurobiological processes that underlie cognitive functions and behaviors.</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>The university's founding followed the arrival of scholars who left the University of Oxford for Cambridge after a dispute with local townspeople.</t>
+          <t>Others explore the physiological and neurobiological processes that underlie cognitive functions and behaviors.</t>
         </is>
       </c>
     </row>
@@ -3750,22 +3750,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Netlfix</t>
+          <t>dissovled</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Netflix</t>
+          <t>dissolved</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Netlfix was founded by Marc Randolph and Reed Hastings on August 29, 1997, in Scotts Valley, California.</t>
+          <t>Because of the Cisplatine War, Rivadavia resigned after a short time, and the office was dissovled shortly thereafter.</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Netflix was founded by Marc Randolph and Reed Hastings on August 29, 1997, in Scotts Valley, California.</t>
+          <t>Because of the Cisplatine War, Rivadavia resigned after a short time, and the office was dissolved shortly thereafter.</t>
         </is>
       </c>
     </row>
@@ -3777,22 +3777,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>fomrerly</t>
+          <t>ercourse</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>formerly</t>
+          <t>recourse</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Adama (Oromo: Adaamaa, Amharic: አዳማ), fomrerly Nazreth (Amharic: ናዝሬት), is one of the cities of Oromia Region of Ethiopia.</t>
+          <t>There were no rules of evidence, and little ercourse against an adverse judgment.</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Adama (Oromo: Adaamaa, Amharic: አዳማ), formerly Nazreth (Amharic: ናዝሬት), is one of the cities of Oromia Region of Ethiopia.</t>
+          <t>There were no rules of evidence, and little recourse against an adverse judgment.</t>
         </is>
       </c>
     </row>
@@ -3804,22 +3804,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>lattiudes</t>
+          <t>sciencse</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>latitudes</t>
+          <t>sciences</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>The manifestation of meteorological winter in the northerly snow-prone lattiudes is highly variable, depending on elevation, position versus marine winds, and the amount of precipitation.</t>
+          <t>Earth science (also known as geoscience, the geographical sciences or the Earth Sciences), is an all-embracing term for the sciencse related to the planet Earth.</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>The manifestation of meteorological winter in the northerly snow-prone latitudes is highly variable, depending on elevation, position versus marine winds, and the amount of precipitation.</t>
+          <t>Earth science (also known as geoscience, the geographical sciences or the Earth Sciences), is an all-embracing term for the sciences related to the planet Earth.</t>
         </is>
       </c>
     </row>
@@ -3831,22 +3831,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Bzyantine</t>
+          <t>membres</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Byzantine</t>
+          <t>members</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>The Bzyantine Empire reached its greatest extent under the reign of Justinian I (r. 527–565), who briefly reconquered much of Italy and the western Mediterranean coast.</t>
+          <t>In 1886, he moved to Paris, where he met membres of the artistic avant-garde, including Émile Bernard and Paul Gauguin, who were seeking new paths beyond Impressionism.</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>The Byzantine Empire reached its greatest extent under the reign of Justinian I (r. 527–565), who briefly reconquered much of Italy and the western Mediterranean coast.</t>
+          <t>In 1886, he moved to Paris, where he met members of the artistic avant-garde, including Émile Bernard and Paul Gauguin, who were seeking new paths beyond Impressionism.</t>
         </is>
       </c>
     </row>
@@ -3858,22 +3858,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>rpecipitation</t>
+          <t>conglomreate</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>precipitation</t>
+          <t>conglomerate</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Winter typically brings rpecipitation that, depending on a region's climate, is mainly rain or snow.</t>
+          <t>The Walt Disney Company, commonly known as simply Disney, is an American multinational mass media and entertainment conglomreate headquartered at the Walt Disney Studios complex in Burbank, California.</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Winter typically brings precipitation that, depending on a region's climate, is mainly rain or snow.</t>
+          <t>The Walt Disney Company, commonly known as simply Disney, is an American multinational mass media and entertainment conglomerate headquartered at the Walt Disney Studios complex in Burbank, California.</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>dcelared</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>declared</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>In 1816, Congress dcelared independence and composed a constitution.</t>
+          <t>It produces content daily on its website and app, and in four print issues annually.</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>In 1816, Congress declared independence and composed a constitution.</t>
+          <t>It produces content daily on its website and app, and in four print issues annually.</t>
         </is>
       </c>
     </row>
@@ -3912,22 +3912,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ecntury</t>
+          <t>stancse</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>century</t>
+          <t>stances</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Large-scale globalization began in the 1820s, and in the late 19th century and early 20th ecntury drove a rapid expansion in the connectivity of the world's economies and cultures.</t>
+          <t>This can lead to problematic stancse which can have large local effects.</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Large-scale globalization began in the 1820s, and in the late 19th century and early 20th century drove a rapid expansion in the connectivity of the world's economies and cultures.</t>
+          <t>This can lead to problematic stances which can have large local effects.</t>
         </is>
       </c>
     </row>
@@ -3939,22 +3939,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>sepcific</t>
+          <t>cotninents</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>specific</t>
+          <t>continents</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Loans or grants for sepcific projects are often linked to wider policy changes in the sector or the country's economy as a whole.</t>
+          <t>The impenetrable defenses enclosed magnificent palaces, domes, and towers, the result of the prosperity Constantinople achieved as the gateway between two cotninents (Europe and Asia) and two seas (the Mediterranean and the Black Sea).</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Loans or grants for specific projects are often linked to wider policy changes in the sector or the country's economy as a whole.</t>
+          <t>The impenetrable defenses enclosed magnificent palaces, domes, and towers, the result of the prosperity Constantinople achieved as the gateway between two continents (Europe and Asia) and two seas (the Mediterranean and the Black Sea).</t>
         </is>
       </c>
     </row>
@@ -3966,22 +3966,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>cahracterized</t>
+          <t>strugglde</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>characterized</t>
+          <t>struggled</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Many of his comments and actions have been cahracterized as racist or misogynistic.</t>
+          <t>It strugglde with internal dissent, especially the Arab Revolt, and engaged in genocide against Armenians, Assyrians, and Greeks.</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Many of his comments and actions have been characterized as racist or misogynistic.</t>
+          <t>It struggled with internal dissent, especially the Arab Revolt, and engaged in genocide against Armenians, Assyrians, and Greeks.</t>
         </is>
       </c>
     </row>
@@ -3993,22 +3993,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>sphreoid</t>
+          <t>evsted</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>spheroid</t>
+          <t>vested</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Newton's inference that the Earth is an oblate sphreoid was later confirmed by the geodetic measurements of Alexis Clairaut, Charles Marie de La Condamine, and others, convincing most European scientists of the superiority of Newtonian mechanics over earlier systems.</t>
+          <t>The president is evsted with the "Supreme Executive Power of the Union".</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Newton's inference that the Earth is an oblate spheroid was later confirmed by the geodetic measurements of Alexis Clairaut, Charles Marie de La Condamine, and others, convincing most European scientists of the superiority of Newtonian mechanics over earlier systems.</t>
+          <t>The president is vested with the "Supreme Executive Power of the Union".</t>
         </is>
       </c>
     </row>
@@ -4020,22 +4020,22 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>emeregncy</t>
+          <t>histoyr</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>emergency</t>
+          <t>history</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>It is unclear whether such emeregncy measures could temporarily suspend portions of the Constitution itself.</t>
+          <t>In the histoyr of Europe, the Middle Ages or medieval period lasted approximately from the 5th to the late 15th centuries, comparable with the post-classical period of global history.</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>It is unclear whether such emergency measures could temporarily suspend portions of the Constitution itself.</t>
+          <t>In the history of Europe, the Middle Ages or medieval period lasted approximately from the 5th to the late 15th centuries, comparable with the post-classical period of global history.</t>
         </is>
       </c>
     </row>
@@ -4047,22 +4047,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>locla</t>
+          <t>blmaed</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>local</t>
+          <t>blamed</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>For example, a loan to improve coastal environmental management may be linked to the development of new environmental institutions at national and locla levels and the implementation of new regulations to limit pollution.</t>
+          <t>Austria-Hungary blmaed Serbia, and declared war on 28 July.</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>For example, a loan to improve coastal environmental management may be linked to the development of new environmental institutions at national and local levels and the implementation of new regulations to limit pollution.</t>
+          <t>Austria-Hungary blamed Serbia, and declared war on 28 July.</t>
         </is>
       </c>
     </row>
@@ -4074,22 +4074,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>bAdul</t>
+          <t>salse</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Abdul</t>
+          <t>sales</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>In the 1876 revolution, the Ottoman Empire attempted constitutional monarchy, before reverting to a royalist dictatorship under bAdul Hamid II, following the Great Eastern Crisis.</t>
+          <t>When the CD arrived intact, they decided to enter the $16 billion Home-video salse and rental industry.</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>In the 1876 revolution, the Ottoman Empire attempted constitutional monarchy, before reverting to a royalist dictatorship under Abdul Hamid II, following the Great Eastern Crisis.</t>
+          <t>When the CD arrived intact, they decided to enter the $16 billion Home-video sales and rental industry.</t>
         </is>
       </c>
     </row>
@@ -4101,22 +4101,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>originla</t>
+          <t>palce</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>original</t>
+          <t>place</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>The originla mascot of McDonald's was a hamburger-headed chef who was referred to as "Speedee".</t>
+          <t>All soft landings took palce on the near side of the Moon until January 2019, when Chang'e 4 made the first landing on the far side of the Moon.</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>The original mascot of McDonald's was a hamburger-headed chef who was referred to as "Speedee".</t>
+          <t>All soft landings took place on the near side of the Moon until January 2019, when Chang'e 4 made the first landing on the far side of the Moon.</t>
         </is>
       </c>
     </row>
@@ -4138,12 +4138,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>The freedom and independence of the judicial system is protected within the constitution.</t>
+          <t>Foreign Policy was presented as a Gold Winner by the Eddie Awards for "Who Wins in Iraq", in the Consumer News/Commentary/General Interest category.</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>The freedom and independence of the judicial system is protected within the constitution.</t>
+          <t>Foreign Policy was presented as a Gold Winner by the Eddie Awards for "Who Wins in Iraq", in the Consumer News/Commentary/General Interest category.</t>
         </is>
       </c>
     </row>
@@ -4155,22 +4155,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Bosinan</t>
+          <t>inlcudes</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Bosnian</t>
+          <t>includes</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Growing tensions in the Balkans reached a breaking point on 28 June 1914 when Gavrilo Princip, a Bosinan Serb, assassinated Franz Ferdinand, the heir to the Austro-Hungarian throne.</t>
+          <t>Criminal law inlcudes the punishment and rehabilitation of people who violate such laws.</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Growing tensions in the Balkans reached a breaking point on 28 June 1914 when Gavrilo Princip, a Bosnian Serb, assassinated Franz Ferdinand, the heir to the Austro-Hungarian throne.</t>
+          <t>Criminal law includes the punishment and rehabilitation of people who violate such laws.</t>
         </is>
       </c>
     </row>
@@ -4182,22 +4182,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>mnetions</t>
+          <t>whihc</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>mentions</t>
+          <t>which</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>One of the Cappadocian tribes he mnetions is the Moschoi, associated by Flavius Josephus with the biblical figure Meshech, son of Japheth: "and the Mosocheni were founded by Mosoch; now they are Cappadocians".</t>
+          <t>This is partly the effect of states being able to interpret international law in a manner whihc they see fit.</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>One of the Cappadocian tribes he mentions is the Moschoi, associated by Flavius Josephus with the biblical figure Meshech, son of Japheth: "and the Mosocheni were founded by Mosoch; now they are Cappadocians".</t>
+          <t>This is partly the effect of states being able to interpret international law in a manner which they see fit.</t>
         </is>
       </c>
     </row>
@@ -4209,22 +4209,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>legisltaures</t>
+          <t>inclueds</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>legislatures</t>
+          <t>includes</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Unlike parliament, there are no commonly agreed-upon terms for legisltaures in non-parliamentary liberal democracies.</t>
+          <t>Present-day climate change inclueds both global warming—the ongoing increase in global average temperature—and its wider effects on Earth's climate system.</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Unlike parliament, there are no commonly agreed-upon terms for legislatures in non-parliamentary liberal democracies.</t>
+          <t>Present-day climate change includes both global warming—the ongoing increase in global average temperature—and its wider effects on Earth's climate system.</t>
         </is>
       </c>
     </row>
@@ -4236,22 +4236,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Economci</t>
+          <t>Thsee</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>These</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Economci transactions occur when two groups or parties agree to the value or price of the transacted good or service, commonly expressed in a certain currency.</t>
+          <t>Thsee reforms peaked with the Tanzimat which was the initial reform era of the Ottoman Empire.</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Economic transactions occur when two groups or parties agree to the value or price of the transacted good or service, commonly expressed in a certain currency.</t>
+          <t>These reforms peaked with the Tanzimat which was the initial reform era of the Ottoman Empire.</t>
         </is>
       </c>
     </row>
@@ -4263,22 +4263,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>sepnt</t>
+          <t>Thsee</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>spent</t>
+          <t>These</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Upon the invitation of Francis I, he sepnt his last three years in France, where he died in 1519.</t>
+          <t>Thsee committees are one of auditing tools of the Parliament.</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Upon the invitation of Francis I, he spent his last three years in France, where he died in 1519.</t>
+          <t>These committees are one of auditing tools of the Parliament.</t>
         </is>
       </c>
     </row>
@@ -4290,22 +4290,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>wrtiten</t>
+          <t>oriignally</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>written</t>
+          <t>originally</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Developments in print technology have allowed an ever-growing distribution and proliferation of wrtiten works, while the digital era has blurred the lines between online electronic literature and other forms of modern media.</t>
+          <t>The ISS was oriignally intended to be a laboratory, observatory, and factory while providing transportation, maintenance, and a low Earth orbit staging base for possible future missions to the Moon, Mars, and asteroids.</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Developments in print technology have allowed an ever-growing distribution and proliferation of written works, while the digital era has blurred the lines between online electronic literature and other forms of modern media.</t>
+          <t>The ISS was originally intended to be a laboratory, observatory, and factory while providing transportation, maintenance, and a low Earth orbit staging base for possible future missions to the Moon, Mars, and asteroids.</t>
         </is>
       </c>
     </row>
@@ -4317,22 +4317,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>mechanisc</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>mechanics</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>In the middle part of his career, Einstein made important contributions to statistical mechanisc and quantum theory.</t>
+          <t>In 1968, he returned to the stage in the acclaimed NBC television comeback special Elvis, which led to an extended Las Vegas concert residency and several highly profitable tours.</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>In the middle part of his career, Einstein made important contributions to statistical mechanics and quantum theory.</t>
+          <t>In 1968, he returned to the stage in the acclaimed NBC television comeback special Elvis, which led to an extended Las Vegas concert residency and several highly profitable tours.</t>
         </is>
       </c>
     </row>
@@ -4344,22 +4344,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>renamde</t>
+          <t>rseponsibility</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>renamed</t>
+          <t>responsibility</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>On 11 May 330, it was renamde Constantinople and dedicated to Constantine.</t>
+          <t>The level of rseponsibility ranged from enacting by-laws about tolls up to the death penalty.</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>On 11 May 330, it was renamed Constantinople and dedicated to Constantine.</t>
+          <t>The level of responsibility ranged from enacting by-laws about tolls up to the death penalty.</t>
         </is>
       </c>
     </row>
@@ -4371,22 +4371,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>closley</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>closely</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>The term is also used more narrowly for writings considered an art form, especially novels, plays, and poems.</t>
+          <t>Legal history is closley connected to the development of civilizations and operates in the wider context of social history.</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>The term is also used more narrowly for writings considered an art form, especially novels, plays, and poems.</t>
+          <t>Legal history is closely connected to the development of civilizations and operates in the wider context of social history.</t>
         </is>
       </c>
     </row>
@@ -4398,22 +4398,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Dvaid</t>
+          <t>ubildings</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>buildings</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>In 1978, Egypt signed the Camp Dvaid Accords, which recognised Israel in exchange for its withdrawal from the occupied Sinai.</t>
+          <t>Its ubildings and facilities are scattered throughout the city centre and around the town.</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>In 1978, Egypt signed the Camp David Accords, which recognised Israel in exchange for its withdrawal from the occupied Sinai.</t>
+          <t>Its buildings and facilities are scattered throughout the city centre and around the town.</t>
         </is>
       </c>
     </row>
@@ -4425,22 +4425,22 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>asesssment</t>
+          <t>Ltierature</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>assessment</t>
+          <t>Literature</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Nursing professionals such as Registered Nurse, Licensed Practical Nurses can develop a baseline asesssment to identify normal versus abnormal findings.</t>
+          <t>He was awarded the Nobel Prize in Ltierature in 1953.</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Nursing professionals such as Registered Nurse, Licensed Practical Nurses can develop a baseline assessment to identify normal versus abnormal findings.</t>
+          <t>He was awarded the Nobel Prize in Literature in 1953.</t>
         </is>
       </c>
     </row>
@@ -4452,22 +4452,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>operaets</t>
+          <t>Intrenational</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>operates</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Disney operaets the largest television and film studio in Hollywood.</t>
+          <t>Intrenational law, also known as public international law and the law of nations, is the set of rules, norms, legal customs and standards that states and other actors feel an obligation to, and generally do, obey in their mutual relations.</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Disney operates the largest television and film studio in Hollywood.</t>
+          <t>International law, also known as public international law and the law of nations, is the set of rules, norms, legal customs and standards that states and other actors feel an obligation to, and generally do, obey in their mutual relations.</t>
         </is>
       </c>
     </row>
@@ -4479,22 +4479,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>rehabiltiative</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>rehabilitative</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>The UN voted for sanctions twelve times in the 1990s alone.</t>
+          <t>Criminal procedure is a formalized official activity that authenticates the fact of commission of a crime and authorizes punitive or rehabiltiative treatment of the offender.</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>The UN voted for sanctions twelve times in the 1990s alone.</t>
+          <t>Criminal procedure is a formalized official activity that authenticates the fact of commission of a crime and authorizes punitive or rehabilitative treatment of the offender.</t>
         </is>
       </c>
     </row>
@@ -4506,22 +4506,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>mAerica</t>
+          <t>davances</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>America</t>
+          <t>advances</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>In the Spanish-speaking parts of Latin mAerica the term "federalist" is used in reference to the politics of 19th-century Argentina and Colombia.</t>
+          <t>Other technological davances made during the Paleolithic era include clothing and shelter.</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>In the Spanish-speaking parts of Latin America the term "federalist" is used in reference to the politics of 19th-century Argentina and Colombia.</t>
+          <t>Other technological advances made during the Paleolithic era include clothing and shelter.</t>
         </is>
       </c>
     </row>
@@ -4533,22 +4533,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Apirl</t>
+          <t>Serivces</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>He was born in Stratford-upon-Avon, where he was baptised on 26 Apirl 1564.</t>
+          <t>Serivces are also traded, such as in tourism, banking, consulting, and transportation.</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>He was born in Stratford-upon-Avon, where he was baptised on 26 April 1564.</t>
+          <t>Services are also traded, such as in tourism, banking, consulting, and transportation.</t>
         </is>
       </c>
     </row>
@@ -4560,22 +4560,22 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>lcimate</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>climate</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>The country ranks first among 17 megadiverse countries, with its natural heritage being the subject of significant global interest, as environmental degradation (through processes such as deforestation) directly affect global issues such as lcimate change and biodiversity loss.</t>
+          <t>A Moon landing or lunar landing is the arrival of a spacecraft on the surface of the Moon, including both crewed and robotic missions.</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>The country ranks first among 17 megadiverse countries, with its natural heritage being the subject of significant global interest, as environmental degradation (through processes such as deforestation) directly affect global issues such as climate change and biodiversity loss.</t>
+          <t>A Moon landing or lunar landing is the arrival of a spacecraft on the surface of the Moon, including both crewed and robotic missions.</t>
         </is>
       </c>
     </row>
@@ -4587,22 +4587,22 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>quatnum</t>
+          <t>trnasacted</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>quantum</t>
+          <t>transacted</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>A member of the communist East German Free German Youth (FDJ), Merkel obtained a doctorate in quatnum chemistry in 1986 and worked as a research scientist until 1989.</t>
+          <t>Economic transactions occur when two groups or parties agree to the value or price of the trnasacted good or service, commonly expressed in a certain currency.</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>A member of the communist East German Free German Youth (FDJ), Merkel obtained a doctorate in quantum chemistry in 1986 and worked as a research scientist until 1989.</t>
+          <t>Economic transactions occur when two groups or parties agree to the value or price of the transacted good or service, commonly expressed in a certain currency.</t>
         </is>
       </c>
     </row>
@@ -4614,22 +4614,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Ottomna</t>
+          <t>histroy</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Ottoman</t>
+          <t>history</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Following Tanzimat reforms over the course of the 19th century, the Ottomna state became more powerful and organized internally.</t>
+          <t>In a more general sense, the term histroy refers not to an academic field but to the past itself, times in the past, or to individual texts about the past.</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Following Tanzimat reforms over the course of the 19th century, the Ottoman state became more powerful and organized internally.</t>
+          <t>In a more general sense, the term history refers not to an academic field but to the past itself, times in the past, or to individual texts about the past.</t>
         </is>
       </c>
     </row>
@@ -4641,22 +4641,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Isatnbul</t>
+          <t>Vicni</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Istanbul</t>
+          <t>Vinci</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Its area of 5,461 square kilometers (2,109 mi2) is coterminous with Isatnbul Province.</t>
+          <t>It saw myriad artistic developments and contributions from such polymaths as Leonardo da Vicni and Michelangelo, who inspired the term "Renaissance man".</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Its area of 5,461 square kilometers (2,109 mi2) is coterminous with Istanbul Province.</t>
+          <t>It saw myriad artistic developments and contributions from such polymaths as Leonardo da Vinci and Michelangelo, who inspired the term "Renaissance man".</t>
         </is>
       </c>
     </row>
@@ -4668,22 +4668,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Dilpoma</t>
+          <t>psychologisst</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Diploma</t>
+          <t>psychologists</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>The Diploma, Advanced Diploma and Graduate Diploma are all forms of Degrees, with a Dilpoma (Level five) qualification, being the entry level for Higher Education.</t>
+          <t>Typically the latter group of psychologisst work in academic settings (e.g., universities, medical schools, or hospitals).</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>The Diploma, Advanced Diploma and Graduate Diploma are all forms of Degrees, with a Diploma (Level five) qualification, being the entry level for Higher Education.</t>
+          <t>Typically the latter group of psychologists work in academic settings (e.g., universities, medical schools, or hospitals).</t>
         </is>
       </c>
     </row>
@@ -4695,22 +4695,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ocuncils</t>
+          <t>Parliamentayr</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>councils</t>
+          <t>Parliamentary</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Ninth-century ecumenical ocuncils applied this regulation to the laity.</t>
+          <t>Most of Ireland seceded from the UK in 1922 as the Irish Free State, and the Royal and Parliamentayr Titles Act 1927 created the present United Kingdom.</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Ninth-century ecumenical councils applied this regulation to the laity.</t>
+          <t>Most of Ireland seceded from the UK in 1922 as the Irish Free State, and the Royal and Parliamentary Titles Act 1927 created the present United Kingdom.</t>
         </is>
       </c>
     </row>
@@ -4722,22 +4722,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>oscialist</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Tespit Edilemedi</t>
+          <t>socialist</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Harvard Library, with more than 20 million volumes, is the world's largest academic library.</t>
+          <t>Communism is a part of the broader oscialist movement.</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Harvard Library, with more than 20 million volumes, is the world's largest academic library.</t>
+          <t>Communism is a part of the broader socialist movement.</t>
         </is>
       </c>
     </row>
@@ -4749,22 +4749,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>strutcure</t>
+          <t>beacme</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>structure</t>
+          <t>became</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>These types illustrate how legislatures differ not only in strutcure and function, but also in their constitutional relationship to other state institutions and in the theories of sovereignty and power that underpin them.</t>
+          <t>During the reigns of Selim I and Suleiman the Magnificent, the Ottoman Empire beacme a global power.</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>These types illustrate how legislatures differ not only in structure and function, but also in their constitutional relationship to other state institutions and in the theories of sovereignty and power that underpin them.</t>
+          <t>During the reigns of Selim I and Suleiman the Magnificent, the Ottoman Empire became a global power.</t>
         </is>
       </c>
     </row>
@@ -4776,22 +4776,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>appliacble</t>
+          <t>nuiversity</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>applicable</t>
+          <t>university</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>One would go to the head of the judicial system (at first the priests as law was part of religion) who would look at the appliacble rules to the case.</t>
+          <t>In 1231, 22 years after its founding, the nuiversity was recognised with a royal charter, granted by King Henry III.</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>One would go to the head of the judicial system (at first the priests as law was part of religion) who would look at the applicable rules to the case.</t>
+          <t>In 1231, 22 years after its founding, the university was recognised with a royal charter, granted by King Henry III.</t>
         </is>
       </c>
     </row>
@@ -4803,22 +4803,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>internatoinal</t>
+          <t>hitsory</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>international</t>
+          <t>history</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>The relationship and interaction between a national legal system and internatoinal law is complex and variable.</t>
+          <t>The study of books and other texts as artifacts or traditions is instead encompassed by textual criticism or the hitsory of the book.</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>The relationship and interaction between a national legal system and international law is complex and variable.</t>
+          <t>The study of books and other texts as artifacts or traditions is instead encompassed by textual criticism or the history of the book.</t>
         </is>
       </c>
     </row>
@@ -4830,22 +4830,454 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>eraction</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>reaction</t>
+          <t>Tespit Edilemedi</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>A chemical eraction is a transformation of some substances into one or more different substances.</t>
+          <t>A product that is transferred or sold from a party in one country to a party in another country is an export from the originating country, and an import to the country receiving that product.</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>A chemical reaction is a transformation of some substances into one or more different substances.</t>
+          <t>A product that is transferred or sold from a party in one country to a party in another country is an export from the originating country, and an import to the country receiving that product.</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>transposition</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>McoDnald</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>McDonald</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Clown mascot Ronald McoDnald was introduced in 1963 to market the chain to children.</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Clown mascot Ronald McDonald was introduced in 1963 to market the chain to children.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>transposition</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Tespit Edilemedi</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Tespit Edilemedi</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Cilicia was the name given to the district in which Caesarea, the capital of the whole country, was situated.</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Cilicia was the name given to the district in which Caesarea, the capital of the whole country, was situated.</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>transposition</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>oFlio</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Folio</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>oFlio Magazine Gold Editorial Excellence (Eddie) Award – Consumer Magazine, News/Commentary/General Interest (single article), "What America Must Do" by Kenneth Rogoff, Jan/Feb 2008.</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Folio Magazine Gold Editorial Excellence (Eddie) Award – Consumer Magazine, News/Commentary/General Interest (single article), "What America Must Do" by Kenneth Rogoff, Jan/Feb 2008.</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>transposition</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>knonw</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>known</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>The Western Front is knonw as the Greco-Turkish War.</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>The Western Front is known as the Greco-Turkish War.</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>transposition</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Knigdom</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Kingdom</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>The Acts of Union 1707 declared that the Knigdom of England and the Kingdom of Scotland were "United into One Kingdom by the Name of Great Britain".</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>The Acts of Union 1707 declared that the Kingdom of England and the Kingdom of Scotland were "United into One Kingdom by the Name of Great Britain".</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>transposition</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>paplications</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>applications</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>The paplications of various fields of chemistry are used frequently for economic purposes in the chemical industry.</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>The applications of various fields of chemistry are used frequently for economic purposes in the chemical industry.</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>transposition</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Tespit Edilemedi</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Tespit Edilemedi</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>With moisture being trapped, the local climate thus has high winter rainfall, while the interior bay setting results in very hot summers for a coastal city.</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>With moisture being trapped, the local climate thus has high winter rainfall, while the interior bay setting results in very hot summers for a coastal city.</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>transposition</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>proir</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>prior</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Be a resident of Mexico for the entire year proir to the election (although absences of 30 days or fewer are explicitly stated not to interrupt residency).</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Be a resident of Mexico for the entire year prior to the election (although absences of 30 days or fewer are explicitly stated not to interrupt residency).</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>transposition</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Auugst</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>As of Auugst 2025, 290 individuals from 26 countries had visited the station.</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>As of August 2025, 290 individuals from 26 countries had visited the station.</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>transposition</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Tespit Edilemedi</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Tespit Edilemedi</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Ancient Athens was the cradle of democracy.</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Ancient Athens was the cradle of democracy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>transposition</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>yaers</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Suffrage is universal for citizens 18 yaers of age and older.</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Suffrage is universal for citizens 18 years of age and older.</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>transposition</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>toawrd</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>toward</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Conversely, winter in the Southern Hemisphere occurs when the Northern Hemisphere is tilted more toawrd the Sun.</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Conversely, winter in the Southern Hemisphere occurs when the Northern Hemisphere is tilted more toward the Sun.</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>transposition</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Tespit Edilemedi</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Tespit Edilemedi</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Fearing more violence from Oxford townsfolk, University of Oxford scholars began leaving Oxford for more hospitable cities, including Paris, Reading, and Cambridge.</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Fearing more violence from Oxford townsfolk, University of Oxford scholars began leaving Oxford for more hospitable cities, including Paris, Reading, and Cambridge.</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>transposition</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>distnict</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>distinct</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Some scientists include as part of the spheres of the Earth, the cryosphere (corresponding to ice) as a distnict portion of the hydrosphere, as well as the pedosphere (to soil) as an active and intermixed sphere.</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Some scientists include as part of the spheres of the Earth, the cryosphere (corresponding to ice) as a distinct portion of the hydrosphere, as well as the pedosphere (to soil) as an active and intermixed sphere.</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>transposition</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Ottoamn</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Ottoman</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>When the millet system started to lose its efficiency due to the rise of nationalism within its borders, the Ottoamn Empire explored new ways of governing its territory composed of diverse populations.</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>When the millet system started to lose its efficiency due to the rise of nationalism within its borders, the Ottoman Empire explored new ways of governing its territory composed of diverse populations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>transposition</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Anegla</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Anegla Dorothea Merkel (née Kasner; born 17 July 1954) is a German retired politician who served as Chancellor of Germany from 2005 to 2021.</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Angela Dorothea Merkel (née Kasner; born 17 July 1954) is a German retired politician who served as Chancellor of Germany from 2005 to 2021.</t>
         </is>
       </c>
     </row>
